--- a/Financial Analysis/PLUG.xlsx
+++ b/Financial Analysis/PLUG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antos\Desktop\Financial Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9377DD14-0D73-4FCE-968E-9ED6731B5277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39890AA-C099-4917-897B-7588F8184389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{160E3FAB-17BC-4ADC-8722-2695A6B3C06F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{160E3FAB-17BC-4ADC-8722-2695A6B3C06F}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -984,8 +984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D775D1E4-17BE-4DD8-84B0-23294395EAB3}">
   <dimension ref="B2:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F3" s="3">
         <f ca="1">TODAY()</f>
-        <v>45773</v>
+        <v>45775</v>
       </c>
       <c r="G3" s="3">
         <v>45785</v>
@@ -1099,11 +1099,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF6D4541-EBC3-461C-8813-49CA1CD05A57}">
   <dimension ref="B2:EZ163"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AG27" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="K3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AP47" sqref="AP47"/>
+      <selection pane="bottomRight" activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1254,10 +1254,22 @@
         <f>AA3-M3-L3-K3</f>
         <v>138.10000000000002</v>
       </c>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
+      <c r="O3" s="8">
+        <f>K3*1.05</f>
+        <v>71.715000000000003</v>
+      </c>
+      <c r="P3" s="8">
+        <f>L3*1.2</f>
+        <v>92.16</v>
+      </c>
+      <c r="Q3" s="8">
+        <f t="shared" ref="P3:R3" si="0">M3*1.1</f>
+        <v>117.81</v>
+      </c>
+      <c r="R3" s="8">
+        <f t="shared" si="0"/>
+        <v>151.91000000000003</v>
+      </c>
       <c r="T3" s="8">
         <v>62.6</v>
       </c>
@@ -1303,27 +1315,27 @@
         <v>1406.4850799999999</v>
       </c>
       <c r="AG3" s="5">
-        <f t="shared" ref="AG3:AL4" si="0">AF3*1.1</f>
+        <f t="shared" ref="AG3:AL4" si="1">AF3*1.1</f>
         <v>1547.1335880000001</v>
       </c>
       <c r="AH3" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1701.8469468000003</v>
       </c>
       <c r="AI3" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1872.0316414800004</v>
       </c>
       <c r="AJ3" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2059.2348056280007</v>
       </c>
       <c r="AK3" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2265.1582861908009</v>
       </c>
       <c r="AL3" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2491.6741148098813</v>
       </c>
     </row>
@@ -1361,10 +1373,22 @@
         <f>AA4-M4-L4-K4</f>
         <v>12.100000000000001</v>
       </c>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
+      <c r="O4" s="8">
+        <f>K4*1.1</f>
+        <v>14.3</v>
+      </c>
+      <c r="P4" s="8">
+        <f t="shared" ref="P4:R5" si="2">L4*1.1</f>
+        <v>14.3</v>
+      </c>
+      <c r="Q4" s="8">
+        <f t="shared" si="2"/>
+        <v>15.510000000000002</v>
+      </c>
+      <c r="R4" s="8">
+        <f>N4*1.4</f>
+        <v>16.940000000000001</v>
+      </c>
       <c r="T4" s="8">
         <v>16.2</v>
       </c>
@@ -1410,27 +1434,27 @@
         <v>163.02686399999999</v>
       </c>
       <c r="AG4" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>179.32955040000002</v>
       </c>
       <c r="AH4" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>197.26250544000004</v>
       </c>
       <c r="AI4" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>216.98875598400005</v>
       </c>
       <c r="AJ4" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>238.68763158240009</v>
       </c>
       <c r="AK4" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>262.55639474064014</v>
       </c>
       <c r="AL4" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>288.81203421470417</v>
       </c>
     </row>
@@ -1468,10 +1492,22 @@
         <f>AA5-M5-L5-K5</f>
         <v>19.299999999999994</v>
       </c>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
+      <c r="O5" s="8">
+        <f>K5*1.1</f>
+        <v>20.130000000000003</v>
+      </c>
+      <c r="P5" s="8">
+        <f t="shared" si="2"/>
+        <v>21.67</v>
+      </c>
+      <c r="Q5" s="8">
+        <f t="shared" si="2"/>
+        <v>22.55</v>
+      </c>
+      <c r="R5" s="8">
+        <f>N5*1.2</f>
+        <v>23.159999999999993</v>
+      </c>
       <c r="T5" s="8">
         <v>12.9</v>
       </c>
@@ -1529,15 +1565,15 @@
         <v>163.80881210429573</v>
       </c>
       <c r="AJ5" s="5">
-        <f t="shared" ref="AJ5:AL5" si="1">AI5*1.03</f>
+        <f t="shared" ref="AJ5:AL5" si="3">AI5*1.03</f>
         <v>168.72307646742459</v>
       </c>
       <c r="AK5" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>173.78476876144734</v>
       </c>
       <c r="AL5" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>178.99831182429077</v>
       </c>
     </row>
@@ -1575,10 +1611,22 @@
         <f>AA6-M6-L6-K6</f>
         <v>19.900000000000009</v>
       </c>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
+      <c r="O6" s="8">
+        <f>K6*1.15</f>
+        <v>21.044999999999998</v>
+      </c>
+      <c r="P6" s="8">
+        <f>L6*0.75</f>
+        <v>22.424999999999997</v>
+      </c>
+      <c r="Q6" s="8">
+        <f>M6*0.8</f>
+        <v>23.840000000000003</v>
+      </c>
+      <c r="R6" s="8">
+        <f>N6*1.2</f>
+        <v>23.88000000000001</v>
+      </c>
       <c r="T6" s="8">
         <v>8.1999999999999993</v>
       </c>
@@ -1632,19 +1680,19 @@
         <v>262.51072469160005</v>
       </c>
       <c r="AI6" s="5">
-        <f t="shared" ref="AI6:AL6" si="2">AH6*1.02</f>
+        <f t="shared" ref="AI6:AL6" si="4">AH6*1.02</f>
         <v>267.76093918543205</v>
       </c>
       <c r="AJ6" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>273.11615796914072</v>
       </c>
       <c r="AK6" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>278.57848112852355</v>
       </c>
       <c r="AL6" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>284.150050751094</v>
       </c>
     </row>
@@ -1682,10 +1730,18 @@
         <f>AA7-M7-L7-K7</f>
         <v>1.9999999999999987</v>
       </c>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
+      <c r="O7" s="8">
+        <v>3</v>
+      </c>
+      <c r="P7" s="8">
+        <v>3</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>3</v>
+      </c>
+      <c r="R7" s="8">
+        <v>3</v>
+      </c>
       <c r="T7" s="8">
         <v>0.3</v>
       </c>
@@ -1715,43 +1771,43 @@
         <v>11.872</v>
       </c>
       <c r="AC7" s="5">
-        <f t="shared" ref="AC7:AL7" si="3">AB7*1.12</f>
+        <f t="shared" ref="AC7:AL7" si="5">AB7*1.12</f>
         <v>13.296640000000002</v>
       </c>
       <c r="AD7" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>14.892236800000003</v>
       </c>
       <c r="AE7" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>16.679305216000003</v>
       </c>
       <c r="AF7" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>18.680821841920004</v>
       </c>
       <c r="AG7" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>20.922520462950406</v>
       </c>
       <c r="AH7" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>23.433222918504455</v>
       </c>
       <c r="AI7" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>26.245209668724993</v>
       </c>
       <c r="AJ7" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>29.394634828971995</v>
       </c>
       <c r="AK7" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>32.921991008448636</v>
       </c>
       <c r="AL7" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>36.872629929462477</v>
       </c>
     </row>
@@ -1760,115 +1816,127 @@
         <v>29</v>
       </c>
       <c r="G8" s="9">
-        <f t="shared" ref="G8:N8" si="4">SUM(G3:G7)</f>
+        <f t="shared" ref="G8:R8" si="6">SUM(G3:G7)</f>
         <v>210.2</v>
       </c>
       <c r="H8" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>260.2</v>
       </c>
       <c r="I8" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>198.8</v>
       </c>
       <c r="J8" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>221.99999999999994</v>
       </c>
       <c r="K8" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>120.3</v>
       </c>
       <c r="L8" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>143.4</v>
       </c>
       <c r="M8" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>173.7</v>
       </c>
       <c r="N8" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>191.4</v>
       </c>
-      <c r="O8" s="9"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
+      <c r="O8" s="9">
+        <f t="shared" si="6"/>
+        <v>130.19</v>
+      </c>
+      <c r="P8" s="9">
+        <f t="shared" si="6"/>
+        <v>153.55500000000001</v>
+      </c>
+      <c r="Q8" s="9">
+        <f t="shared" si="6"/>
+        <v>182.71</v>
+      </c>
+      <c r="R8" s="9">
+        <f t="shared" si="6"/>
+        <v>218.89000000000004</v>
+      </c>
       <c r="T8" s="9">
-        <f t="shared" ref="T8:AA8" si="5">SUM(T3:T7)</f>
+        <f t="shared" ref="T8:AA8" si="7">SUM(T3:T7)</f>
         <v>100.2</v>
       </c>
       <c r="U8" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>174.70000000000002</v>
       </c>
       <c r="V8" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>230.29999999999998</v>
       </c>
       <c r="W8" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-93.3</v>
       </c>
       <c r="X8" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>502.4</v>
       </c>
       <c r="Y8" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>701.4</v>
       </c>
       <c r="Z8" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>891.2</v>
       </c>
       <c r="AA8" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>628.79999999999995</v>
       </c>
       <c r="AB8" s="9">
-        <f t="shared" ref="AB8:AL8" si="6">SUM(AB3:AB7)</f>
+        <f t="shared" ref="AB8:AL8" si="8">SUM(AB3:AB7)</f>
         <v>895.60199999999998</v>
       </c>
       <c r="AC8" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1206.6196400000001</v>
       </c>
       <c r="AD8" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1521.1878668000002</v>
       </c>
       <c r="AE8" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1795.244916416</v>
       </c>
       <c r="AF8" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1970.2749287379199</v>
       </c>
       <c r="AG8" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2156.2135731616709</v>
       </c>
       <c r="AH8" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2344.0910815047605</v>
       </c>
       <c r="AI8" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2546.8353584224528</v>
       </c>
       <c r="AJ8" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2769.156306475938</v>
       </c>
       <c r="AK8" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3012.9999218298599</v>
       </c>
       <c r="AL8" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3280.5071415294328</v>
       </c>
     </row>
@@ -1886,7 +1954,7 @@
         <v>159</v>
       </c>
       <c r="J9" s="8">
-        <f t="shared" ref="J9:J14" si="7">Z9-I9-H9-G9</f>
+        <f t="shared" ref="J9:J14" si="9">Z9-I9-H9-G9</f>
         <v>260.90000000000003</v>
       </c>
       <c r="K9" s="5">
@@ -1899,7 +1967,7 @@
         <v>149.9</v>
       </c>
       <c r="N9" s="8">
-        <f t="shared" ref="N9:N14" si="8">AA9-M9-L9-K9</f>
+        <f t="shared" ref="N9:N14" si="10">AA9-M9-L9-K9</f>
         <v>281.20000000000005</v>
       </c>
       <c r="O9" s="5"/>
@@ -1959,19 +2027,19 @@
         <v>1089.1820459520002</v>
       </c>
       <c r="AI9" s="5">
-        <f t="shared" ref="AI9:AL9" si="9">AI3*0.64</f>
+        <f t="shared" ref="AI9:AL9" si="11">AI3*0.64</f>
         <v>1198.1002505472004</v>
       </c>
       <c r="AJ9" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1317.9102756019204</v>
       </c>
       <c r="AK9" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1449.7013031621127</v>
       </c>
       <c r="AL9" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1594.6714334783242</v>
       </c>
     </row>
@@ -1989,7 +2057,7 @@
         <v>17.899999999999999</v>
       </c>
       <c r="J10" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>21.900000000000009</v>
       </c>
       <c r="K10" s="5">
@@ -2002,7 +2070,7 @@
         <v>9.1</v>
       </c>
       <c r="N10" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>22</v>
       </c>
       <c r="O10" s="5"/>
@@ -2053,27 +2121,27 @@
         <v>73.362088799999995</v>
       </c>
       <c r="AG10" s="5">
-        <f t="shared" ref="AG10:AL10" si="10">AG4*0.45</f>
+        <f t="shared" ref="AG10:AL10" si="12">AG4*0.45</f>
         <v>80.69829768000001</v>
       </c>
       <c r="AH10" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>88.768127448000016</v>
       </c>
       <c r="AI10" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>97.644940192800021</v>
       </c>
       <c r="AJ10" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>107.40943421208004</v>
       </c>
       <c r="AK10" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>118.15037763328807</v>
       </c>
       <c r="AL10" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>129.96541539661689</v>
       </c>
     </row>
@@ -2091,7 +2159,7 @@
         <v>41.6</v>
       </c>
       <c r="J11" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>30.5</v>
       </c>
       <c r="K11" s="5">
@@ -2104,7 +2172,7 @@
         <v>6</v>
       </c>
       <c r="N11" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>10.3</v>
       </c>
       <c r="O11" s="5"/>
@@ -2141,35 +2209,35 @@
         <v>55.313932800000003</v>
       </c>
       <c r="AE11" s="5">
-        <f t="shared" ref="AE11:AL11" si="11">AE5*0.46</f>
+        <f t="shared" ref="AE11:AL11" si="13">AE5*0.46</f>
         <v>60.292186752000013</v>
       </c>
       <c r="AF11" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>65.115561692160014</v>
       </c>
       <c r="AG11" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>69.673651010611223</v>
       </c>
       <c r="AH11" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>73.157333561141783</v>
       </c>
       <c r="AI11" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>75.352053567976043</v>
       </c>
       <c r="AJ11" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>77.612615175015321</v>
       </c>
       <c r="AK11" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>79.94099363026578</v>
       </c>
       <c r="AL11" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>82.33922343917375</v>
       </c>
     </row>
@@ -2187,7 +2255,7 @@
         <v>57</v>
       </c>
       <c r="J12" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>61.100000000000009</v>
       </c>
       <c r="K12" s="5">
@@ -2200,7 +2268,7 @@
         <v>51.8</v>
       </c>
       <c r="N12" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>55.600000000000023</v>
       </c>
       <c r="O12" s="5"/>
@@ -2290,7 +2358,7 @@
         <v>59</v>
       </c>
       <c r="J13" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>68.300000000000011</v>
       </c>
       <c r="K13" s="5">
@@ -2303,7 +2371,7 @@
         <v>55.5</v>
       </c>
       <c r="N13" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>56.400000000000013</v>
       </c>
       <c r="O13" s="5"/>
@@ -2393,7 +2461,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="J14" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.6999999999999997</v>
       </c>
       <c r="K14" s="5">
@@ -2406,7 +2474,7 @@
         <v>1.4</v>
       </c>
       <c r="N14" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0.49999999999999978</v>
       </c>
       <c r="O14" s="5"/>
@@ -2446,39 +2514,39 @@
         <v>6.6483200000000009</v>
       </c>
       <c r="AD14" s="5">
-        <f t="shared" ref="AD14:AL14" si="12">AD7*0.5</f>
+        <f t="shared" ref="AD14:AL14" si="14">AD7*0.5</f>
         <v>7.4461184000000014</v>
       </c>
       <c r="AE14" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>8.3396526080000015</v>
       </c>
       <c r="AF14" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>9.3404109209600019</v>
       </c>
       <c r="AG14" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>10.461260231475203</v>
       </c>
       <c r="AH14" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>11.716611459252228</v>
       </c>
       <c r="AI14" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>13.122604834362496</v>
       </c>
       <c r="AJ14" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>14.697317414485997</v>
       </c>
       <c r="AK14" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>16.460995504224318</v>
       </c>
       <c r="AL14" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>18.436314964731238</v>
       </c>
     </row>
@@ -2487,35 +2555,35 @@
         <v>30</v>
       </c>
       <c r="G15" s="5">
-        <f t="shared" ref="G15:N15" si="13">SUM(G9:G14)</f>
+        <f t="shared" ref="G15:N15" si="15">SUM(G9:G14)</f>
         <v>279.59999999999997</v>
       </c>
       <c r="H15" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>338.3</v>
       </c>
       <c r="I15" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>336.7</v>
       </c>
       <c r="J15" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>444.40000000000009</v>
       </c>
       <c r="K15" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>279.3</v>
       </c>
       <c r="L15" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>274.59999999999997</v>
       </c>
       <c r="M15" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>273.7</v>
       </c>
       <c r="N15" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>426.00000000000011</v>
       </c>
       <c r="O15" s="5"/>
@@ -2523,79 +2591,79 @@
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
       <c r="T15" s="5">
-        <f t="shared" ref="T15:AA15" si="14">SUM(T9:T14)</f>
+        <f t="shared" ref="T15:AA15" si="16">SUM(T9:T14)</f>
         <v>128.19999999999999</v>
       </c>
       <c r="U15" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>172</v>
       </c>
       <c r="V15" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>202.4</v>
       </c>
       <c r="W15" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>376.1</v>
       </c>
       <c r="X15" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>673.7</v>
       </c>
       <c r="Y15" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>895.9</v>
       </c>
       <c r="Z15" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1399</v>
       </c>
       <c r="AA15" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>1253.5999999999999</v>
       </c>
       <c r="AB15" s="5">
-        <f t="shared" ref="AB15:AL15" si="15">SUM(AB9:AB14)</f>
+        <f t="shared" ref="AB15:AL15" si="17">SUM(AB9:AB14)</f>
         <v>1195.0385000000001</v>
       </c>
       <c r="AC15" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1264.0799400000001</v>
       </c>
       <c r="AD15" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1341.2559236999998</v>
       </c>
       <c r="AE15" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1393.7720468</v>
       </c>
       <c r="AF15" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1472.3359339987201</v>
       </c>
       <c r="AG15" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1572.5766401335429</v>
       </c>
       <c r="AH15" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1676.4972030259023</v>
       </c>
       <c r="AI15" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1796.8887222594346</v>
       </c>
       <c r="AJ15" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1934.0024535888904</v>
       </c>
       <c r="AK15" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2085.9994294512344</v>
       </c>
       <c r="AL15" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2252.5603982374678</v>
       </c>
     </row>
@@ -2604,35 +2672,35 @@
         <v>12</v>
       </c>
       <c r="G16" s="9">
-        <f t="shared" ref="G16:N16" si="16">G8-G15</f>
+        <f t="shared" ref="G16:N16" si="18">G8-G15</f>
         <v>-69.399999999999977</v>
       </c>
       <c r="H16" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-78.100000000000023</v>
       </c>
       <c r="I16" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-137.89999999999998</v>
       </c>
       <c r="J16" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-222.40000000000015</v>
       </c>
       <c r="K16" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-159</v>
       </c>
       <c r="L16" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-131.19999999999996</v>
       </c>
       <c r="M16" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-100</v>
       </c>
       <c r="N16" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>-234.60000000000011</v>
       </c>
       <c r="O16" s="9"/>
@@ -2640,79 +2708,79 @@
       <c r="Q16" s="9"/>
       <c r="R16" s="9"/>
       <c r="T16" s="9">
-        <f t="shared" ref="T16:AA16" si="17">T8-T15</f>
+        <f t="shared" ref="T16:AA16" si="19">T8-T15</f>
         <v>-27.999999999999986</v>
       </c>
       <c r="U16" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>2.7000000000000171</v>
       </c>
       <c r="V16" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>27.899999999999977</v>
       </c>
       <c r="W16" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-469.40000000000003</v>
       </c>
       <c r="X16" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-171.30000000000007</v>
       </c>
       <c r="Y16" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-194.5</v>
       </c>
       <c r="Z16" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-507.79999999999995</v>
       </c>
       <c r="AA16" s="9">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>-624.79999999999995</v>
       </c>
       <c r="AB16" s="9">
-        <f t="shared" ref="AB16:AL16" si="18">AB8-AB15</f>
+        <f t="shared" ref="AB16:AL16" si="20">AB8-AB15</f>
         <v>-299.43650000000014</v>
       </c>
       <c r="AC16" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>-57.460299999999961</v>
       </c>
       <c r="AD16" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>179.93194310000035</v>
       </c>
       <c r="AE16" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>401.47286961600003</v>
       </c>
       <c r="AF16" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>497.93899473919987</v>
       </c>
       <c r="AG16" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>583.63693302812794</v>
       </c>
       <c r="AH16" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>667.59387847885819</v>
       </c>
       <c r="AI16" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>749.94663616301818</v>
       </c>
       <c r="AJ16" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>835.15385288704761</v>
       </c>
       <c r="AK16" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>927.00049237862549</v>
       </c>
       <c r="AL16" s="9">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>1027.946743291965</v>
       </c>
     </row>
@@ -2803,19 +2871,19 @@
         <v>110.47984973625606</v>
       </c>
       <c r="AI17" s="5">
-        <f t="shared" ref="AI17:AL17" si="19">AH17*1.02</f>
+        <f t="shared" ref="AI17:AL17" si="21">AH17*1.02</f>
         <v>112.68944673098117</v>
       </c>
       <c r="AJ17" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>114.9432356656008</v>
       </c>
       <c r="AK17" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>117.24210037891281</v>
       </c>
       <c r="AL17" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>119.58694238649107</v>
       </c>
     </row>
@@ -2886,39 +2954,39 @@
         <v>342.77754000000004</v>
       </c>
       <c r="AD18" s="5">
-        <f t="shared" ref="AD18:AL18" si="20">AC18*1.01</f>
+        <f t="shared" ref="AD18:AL18" si="22">AC18*1.01</f>
         <v>346.20531540000007</v>
       </c>
       <c r="AE18" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>349.66736855400006</v>
       </c>
       <c r="AF18" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>353.16404223954009</v>
       </c>
       <c r="AG18" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>356.69568266193551</v>
       </c>
       <c r="AH18" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>360.26263948855484</v>
       </c>
       <c r="AI18" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>363.86526588344037</v>
       </c>
       <c r="AJ18" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>367.50391854227479</v>
       </c>
       <c r="AK18" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>371.17895772769754</v>
       </c>
       <c r="AL18" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>374.89074730497452</v>
       </c>
     </row>
@@ -3183,35 +3251,35 @@
         <v>41</v>
       </c>
       <c r="G22" s="5">
-        <f t="shared" ref="G22:N22" si="21">SUM(G17:G21)</f>
+        <f t="shared" ref="G22:N22" si="23">SUM(G17:G21)</f>
         <v>140.4</v>
       </c>
       <c r="H22" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>155.80000000000001</v>
       </c>
       <c r="I22" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>136.09999999999997</v>
       </c>
       <c r="J22" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>403.40000000000003</v>
       </c>
       <c r="K22" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>100.39999999999999</v>
       </c>
       <c r="L22" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>113.3</v>
       </c>
       <c r="M22" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>116.1</v>
       </c>
       <c r="N22" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1065.2</v>
       </c>
       <c r="O22" s="5"/>
@@ -3219,79 +3287,79 @@
       <c r="Q22" s="5"/>
       <c r="R22" s="5"/>
       <c r="T22" s="5">
-        <f t="shared" ref="T22:AA22" si="22">SUM(T17:T21)</f>
+        <f t="shared" ref="T22:AA22" si="24">SUM(T17:T21)</f>
         <v>73.7</v>
       </c>
       <c r="U22" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>72.099999999999994</v>
       </c>
       <c r="V22" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>78</v>
       </c>
       <c r="W22" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>114.7</v>
       </c>
       <c r="X22" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>266.09999999999997</v>
       </c>
       <c r="Y22" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>485.2</v>
       </c>
       <c r="Z22" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>835.7</v>
       </c>
       <c r="AA22" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1395</v>
       </c>
       <c r="AB22" s="5">
-        <f t="shared" ref="AB22:AL22" si="23">SUM(AB17:AB21)</f>
+        <f t="shared" ref="AB22:AL22" si="25">SUM(AB17:AB21)</f>
         <v>434.69300000000004</v>
       </c>
       <c r="AC22" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>434.49114000000009</v>
       </c>
       <c r="AD22" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>442.50459540000008</v>
       </c>
       <c r="AE22" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>450.78161255400011</v>
       </c>
       <c r="AF22" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>458.32285599954014</v>
       </c>
       <c r="AG22" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>465.00926083473553</v>
       </c>
       <c r="AH22" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>470.74248922481092</v>
       </c>
       <c r="AI22" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>476.55471261442153</v>
       </c>
       <c r="AJ22" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>482.4471542078756</v>
       </c>
       <c r="AK22" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>488.42105810661036</v>
       </c>
       <c r="AL22" s="5">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>494.47768969146557</v>
       </c>
     </row>
@@ -3300,35 +3368,35 @@
         <v>42</v>
       </c>
       <c r="G23" s="9">
-        <f t="shared" ref="G23:N23" si="24">G16-G22</f>
+        <f t="shared" ref="G23:N23" si="26">G16-G22</f>
         <v>-209.79999999999998</v>
       </c>
       <c r="H23" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>-233.90000000000003</v>
       </c>
       <c r="I23" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>-273.99999999999994</v>
       </c>
       <c r="J23" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>-625.80000000000018</v>
       </c>
       <c r="K23" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>-259.39999999999998</v>
       </c>
       <c r="L23" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>-244.49999999999994</v>
       </c>
       <c r="M23" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>-216.1</v>
       </c>
       <c r="N23" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>-1299.8000000000002</v>
       </c>
       <c r="O23" s="9"/>
@@ -3336,79 +3404,79 @@
       <c r="Q23" s="9"/>
       <c r="R23" s="9"/>
       <c r="T23" s="9">
-        <f t="shared" ref="T23:AA23" si="25">T16-T22</f>
+        <f t="shared" ref="T23:AA23" si="27">T16-T22</f>
         <v>-101.69999999999999</v>
       </c>
       <c r="U23" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-69.399999999999977</v>
       </c>
       <c r="V23" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-50.100000000000023</v>
       </c>
       <c r="W23" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-584.1</v>
       </c>
       <c r="X23" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-437.40000000000003</v>
       </c>
       <c r="Y23" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-679.7</v>
       </c>
       <c r="Z23" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-1343.5</v>
       </c>
       <c r="AA23" s="9">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>-2019.8</v>
       </c>
       <c r="AB23" s="9">
-        <f t="shared" ref="AB23:AL23" si="26">AB16-AB22</f>
+        <f t="shared" ref="AB23:AL23" si="28">AB16-AB22</f>
         <v>-734.12950000000023</v>
       </c>
       <c r="AC23" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>-491.95144000000005</v>
       </c>
       <c r="AD23" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>-262.57265229999973</v>
       </c>
       <c r="AE23" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>-49.30874293800008</v>
       </c>
       <c r="AF23" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>39.616138739659732</v>
       </c>
       <c r="AG23" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>118.62767219339241</v>
       </c>
       <c r="AH23" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>196.85138925404726</v>
       </c>
       <c r="AI23" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>273.39192354859665</v>
       </c>
       <c r="AJ23" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>352.70669867917201</v>
       </c>
       <c r="AK23" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>438.57943427201513</v>
       </c>
       <c r="AL23" s="9">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>533.46905360049948</v>
       </c>
     </row>
@@ -3426,7 +3494,7 @@
         <v>-10.4</v>
       </c>
       <c r="J24" s="8">
-        <f t="shared" ref="J24:J29" si="27">Z24-I24-H24-G24</f>
+        <f t="shared" ref="J24:J29" si="29">Z24-I24-H24-G24</f>
         <v>-11.399999999999999</v>
       </c>
       <c r="K24" s="5">
@@ -3439,7 +3507,7 @@
         <v>-7.4</v>
       </c>
       <c r="N24" s="8">
-        <f t="shared" ref="N24:N29" si="28">AA24-M24-L24-K24</f>
+        <f t="shared" ref="N24:N29" si="30">AA24-M24-L24-K24</f>
         <v>-6.1999999999999957</v>
       </c>
       <c r="O24" s="5"/>
@@ -3469,43 +3537,43 @@
         <v>-31.620999999999999</v>
       </c>
       <c r="AC24" s="5">
-        <f t="shared" ref="AC24:AL24" si="29">AB24*1.03</f>
+        <f t="shared" ref="AC24:AL24" si="31">AB24*1.03</f>
         <v>-32.569629999999997</v>
       </c>
       <c r="AD24" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>-33.546718899999995</v>
       </c>
       <c r="AE24" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>-34.553120466999992</v>
       </c>
       <c r="AF24" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>-35.589714081009994</v>
       </c>
       <c r="AG24" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>-36.657405503440295</v>
       </c>
       <c r="AH24" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>-37.757127668543504</v>
       </c>
       <c r="AI24" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>-38.889841498599807</v>
       </c>
       <c r="AJ24" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>-40.0565367435578</v>
       </c>
       <c r="AK24" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>-41.258232845864534</v>
       </c>
       <c r="AL24" s="5">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>-42.495979831240469</v>
       </c>
     </row>
@@ -3523,7 +3591,7 @@
         <v>11.8</v>
       </c>
       <c r="J25" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>11.400000000000006</v>
       </c>
       <c r="K25" s="5">
@@ -3536,7 +3604,7 @@
         <v>9.1</v>
       </c>
       <c r="N25" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>16.7</v>
       </c>
       <c r="O25" s="5"/>
@@ -3572,43 +3640,43 @@
         <v>47.532000000000004</v>
       </c>
       <c r="AC25" s="5">
-        <f t="shared" ref="AC25:AL25" si="30">AB25*1.02</f>
+        <f t="shared" ref="AC25:AL25" si="32">AB25*1.02</f>
         <v>48.482640000000004</v>
       </c>
       <c r="AD25" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>49.452292800000002</v>
       </c>
       <c r="AE25" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>50.441338656000006</v>
       </c>
       <c r="AF25" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>51.450165429120005</v>
       </c>
       <c r="AG25" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>52.479168737702409</v>
       </c>
       <c r="AH25" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>53.528752112456459</v>
       </c>
       <c r="AI25" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>54.599327154705591</v>
       </c>
       <c r="AJ25" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>55.691313697799707</v>
       </c>
       <c r="AK25" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>56.8051399717557</v>
       </c>
       <c r="AL25" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="32"/>
         <v>57.941242771190815</v>
       </c>
     </row>
@@ -3626,7 +3694,7 @@
         <v>-5</v>
       </c>
       <c r="J26" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>-4.8</v>
       </c>
       <c r="K26" s="5">
@@ -3639,7 +3707,7 @@
         <v>-15.5</v>
       </c>
       <c r="N26" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>19.399999999999999</v>
       </c>
       <c r="O26" s="5"/>
@@ -3712,7 +3780,7 @@
         <v>0</v>
       </c>
       <c r="J27" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>13.100000000000001</v>
       </c>
       <c r="K27" s="5">
@@ -3725,7 +3793,7 @@
         <v>0</v>
       </c>
       <c r="N27" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="O27" s="5"/>
@@ -3798,7 +3866,7 @@
         <v>10.8</v>
       </c>
       <c r="J28" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>-13.200000000000005</v>
       </c>
       <c r="K28" s="5">
@@ -3811,7 +3879,7 @@
         <v>0</v>
       </c>
       <c r="N28" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="O28" s="5"/>
@@ -3885,7 +3953,7 @@
         <v>6.9</v>
       </c>
       <c r="J29" s="8">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>21.999999999999996</v>
       </c>
       <c r="K29" s="5">
@@ -3899,7 +3967,7 @@
         <v>8.6999999999999993</v>
       </c>
       <c r="N29" s="8">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>8.8999999999999986</v>
       </c>
       <c r="O29" s="5"/>
@@ -3937,43 +4005,43 @@
         <v>52.419000000000004</v>
       </c>
       <c r="AC29" s="5">
-        <f t="shared" ref="AC29:AL29" si="31">AB29*1.01</f>
+        <f t="shared" ref="AC29:AL29" si="33">AB29*1.01</f>
         <v>52.943190000000001</v>
       </c>
       <c r="AD29" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>53.4726219</v>
       </c>
       <c r="AE29" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>54.007348119</v>
       </c>
       <c r="AF29" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>54.547421600189999</v>
       </c>
       <c r="AG29" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>55.092895816191898</v>
       </c>
       <c r="AH29" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>55.643824774353817</v>
       </c>
       <c r="AI29" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>56.200263022097353</v>
       </c>
       <c r="AJ29" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>56.762265652318327</v>
       </c>
       <c r="AK29" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>57.329888308841511</v>
       </c>
       <c r="AL29" s="5">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>57.903187191929923</v>
       </c>
     </row>
@@ -3982,35 +4050,35 @@
         <v>49</v>
       </c>
       <c r="G30" s="5">
-        <f t="shared" ref="G30:N30" si="32">SUM(G24:G29)</f>
+        <f t="shared" ref="G30:N30" si="34">SUM(G24:G29)</f>
         <v>-1.9000000000000021</v>
       </c>
       <c r="H30" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>3.4000000000000012</v>
       </c>
       <c r="I30" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>14.100000000000001</v>
       </c>
       <c r="J30" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>17.100000000000001</v>
       </c>
       <c r="K30" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>36.1</v>
       </c>
       <c r="L30" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>18</v>
       </c>
       <c r="M30" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>-5.1000000000000014</v>
       </c>
       <c r="N30" s="5">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>38.799999999999997</v>
       </c>
       <c r="O30" s="5"/>
@@ -4018,79 +4086,79 @@
       <c r="Q30" s="5"/>
       <c r="R30" s="5"/>
       <c r="T30" s="5">
-        <f t="shared" ref="T30:AB30" si="33">SUM(T24:T29)</f>
+        <f t="shared" ref="T30:AB30" si="35">SUM(T24:T29)</f>
         <v>25.299999999999997</v>
       </c>
       <c r="U30" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>17.8</v>
       </c>
       <c r="V30" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>35.4</v>
       </c>
       <c r="W30" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>42.7</v>
       </c>
       <c r="X30" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>38.900000000000006</v>
       </c>
       <c r="Y30" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>43.6</v>
       </c>
       <c r="Z30" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>32.700000000000003</v>
       </c>
       <c r="AA30" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>87.800000000000011</v>
       </c>
       <c r="AB30" s="5">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>68.330000000000013</v>
       </c>
       <c r="AC30" s="5">
-        <f t="shared" ref="AC30:AL30" si="34">SUM(AC24:AC29)</f>
+        <f t="shared" ref="AC30:AL30" si="36">SUM(AC24:AC29)</f>
         <v>68.856200000000001</v>
       </c>
       <c r="AD30" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>69.378195800000015</v>
       </c>
       <c r="AE30" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>69.895566308000014</v>
       </c>
       <c r="AF30" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>70.40787294830001</v>
       </c>
       <c r="AG30" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>70.91465905045402</v>
       </c>
       <c r="AH30" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>71.415449218266772</v>
       </c>
       <c r="AI30" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>71.90974867820313</v>
       </c>
       <c r="AJ30" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>72.397042606560234</v>
       </c>
       <c r="AK30" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>72.876795434732685</v>
       </c>
       <c r="AL30" s="5">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>73.34845013188027</v>
       </c>
     </row>
@@ -4099,35 +4167,35 @@
         <v>50</v>
       </c>
       <c r="G31" s="9">
-        <f t="shared" ref="G31:N31" si="35">G23-G30</f>
+        <f t="shared" ref="G31:N31" si="37">G23-G30</f>
         <v>-207.89999999999998</v>
       </c>
       <c r="H31" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>-237.30000000000004</v>
       </c>
       <c r="I31" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>-288.09999999999997</v>
       </c>
       <c r="J31" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>-642.9000000000002</v>
       </c>
       <c r="K31" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>-295.5</v>
       </c>
       <c r="L31" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>-262.49999999999994</v>
       </c>
       <c r="M31" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>-211</v>
       </c>
       <c r="N31" s="9">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>-1338.6000000000001</v>
       </c>
       <c r="O31" s="9"/>
@@ -4135,79 +4203,79 @@
       <c r="Q31" s="9"/>
       <c r="R31" s="9"/>
       <c r="T31" s="9">
-        <f t="shared" ref="T31:AB31" si="36">T23-T30</f>
+        <f t="shared" ref="T31:AB31" si="38">T23-T30</f>
         <v>-126.99999999999999</v>
       </c>
       <c r="U31" s="9">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>-87.199999999999974</v>
       </c>
       <c r="V31" s="9">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>-85.500000000000028</v>
       </c>
       <c r="W31" s="9">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>-626.80000000000007</v>
       </c>
       <c r="X31" s="9">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>-476.30000000000007</v>
       </c>
       <c r="Y31" s="9">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>-723.30000000000007</v>
       </c>
       <c r="Z31" s="9">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>-1376.2</v>
       </c>
       <c r="AA31" s="9">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>-2107.6</v>
       </c>
       <c r="AB31" s="9">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>-802.45950000000028</v>
       </c>
       <c r="AC31" s="9">
-        <f t="shared" ref="AC31:AL31" si="37">AC23-AC30</f>
+        <f t="shared" ref="AC31:AL31" si="39">AC23-AC30</f>
         <v>-560.80763999999999</v>
       </c>
       <c r="AD31" s="9">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>-331.95084809999975</v>
       </c>
       <c r="AE31" s="9">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>-119.20430924600009</v>
       </c>
       <c r="AF31" s="9">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>-30.791734208640278</v>
       </c>
       <c r="AG31" s="9">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>47.713013142938394</v>
       </c>
       <c r="AH31" s="9">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>125.43594003578049</v>
       </c>
       <c r="AI31" s="9">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>201.48217487039352</v>
       </c>
       <c r="AJ31" s="9">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>280.3096560726118</v>
       </c>
       <c r="AK31" s="9">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>365.70263883728245</v>
       </c>
       <c r="AL31" s="9">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>460.12060346861921</v>
       </c>
     </row>
@@ -4274,43 +4342,43 @@
         <v>-80.245950000000036</v>
       </c>
       <c r="AC32" s="5">
-        <f t="shared" ref="AC32:AL32" si="38">AC31*0.1</f>
+        <f t="shared" ref="AC32:AL32" si="40">AC31*0.1</f>
         <v>-56.080764000000002</v>
       </c>
       <c r="AD32" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>-33.195084809999976</v>
       </c>
       <c r="AE32" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>-11.92043092460001</v>
       </c>
       <c r="AF32" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>-3.079173420864028</v>
       </c>
       <c r="AG32" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>4.7713013142938392</v>
       </c>
       <c r="AH32" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>12.54359400357805</v>
       </c>
       <c r="AI32" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>20.148217487039354</v>
       </c>
       <c r="AJ32" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>28.03096560726118</v>
       </c>
       <c r="AK32" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>36.570263883728245</v>
       </c>
       <c r="AL32" s="5">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>46.012060346861922</v>
       </c>
     </row>
@@ -4319,35 +4387,35 @@
         <v>52</v>
       </c>
       <c r="G33" s="9">
-        <f t="shared" ref="G33:N33" si="39">G31-G32</f>
+        <f t="shared" ref="G33:N33" si="41">G31-G32</f>
         <v>-206.59999999999997</v>
       </c>
       <c r="H33" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>-236.40000000000003</v>
       </c>
       <c r="I33" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>-283.39999999999998</v>
       </c>
       <c r="J33" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>-642.4000000000002</v>
       </c>
       <c r="K33" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>-295.7</v>
       </c>
       <c r="L33" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>-262.09999999999997</v>
       </c>
       <c r="M33" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>-211.1</v>
       </c>
       <c r="N33" s="9">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>-1336.0000000000002</v>
       </c>
       <c r="O33" s="9"/>
@@ -4355,79 +4423,79 @@
       <c r="Q33" s="9"/>
       <c r="R33" s="9"/>
       <c r="T33" s="9">
-        <f t="shared" ref="T33:AB33" si="40">T31-T32</f>
+        <f t="shared" ref="T33:AB33" si="42">T31-T32</f>
         <v>-126.99999999999999</v>
       </c>
       <c r="U33" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>-77.999999999999972</v>
       </c>
       <c r="V33" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>-85.500000000000028</v>
       </c>
       <c r="W33" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>-596.00000000000011</v>
       </c>
       <c r="X33" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>-460.10000000000008</v>
       </c>
       <c r="Y33" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>-724.1</v>
       </c>
       <c r="Z33" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>-1368.8</v>
       </c>
       <c r="AA33" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>-2104.9</v>
       </c>
       <c r="AB33" s="9">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>-722.21355000000028</v>
       </c>
       <c r="AC33" s="9">
-        <f t="shared" ref="AC33:AL33" si="41">AC31-AC32</f>
+        <f t="shared" ref="AC33:AL33" si="43">AC31-AC32</f>
         <v>-504.726876</v>
       </c>
       <c r="AD33" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>-298.75576328999978</v>
       </c>
       <c r="AE33" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>-107.28387832140008</v>
       </c>
       <c r="AF33" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>-27.712560787776251</v>
       </c>
       <c r="AG33" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>42.941711828644557</v>
       </c>
       <c r="AH33" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>112.89234603220244</v>
       </c>
       <c r="AI33" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>181.33395738335417</v>
       </c>
       <c r="AJ33" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>252.27869046535062</v>
       </c>
       <c r="AK33" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>329.13237495355418</v>
       </c>
       <c r="AL33" s="9">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>414.10854312175729</v>
       </c>
       <c r="AM33" s="1">
@@ -4435,471 +4503,471 @@
         <v>409.96745769053973</v>
       </c>
       <c r="AN33" s="1">
-        <f t="shared" ref="AN33:CY33" si="42">AM33*(1+$AP$38)</f>
+        <f t="shared" ref="AN33:CY33" si="44">AM33*(1+$AP$38)</f>
         <v>405.86778311363435</v>
       </c>
       <c r="AO33" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>401.80910528249802</v>
       </c>
       <c r="AP33" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>397.79101422967307</v>
       </c>
       <c r="AQ33" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>393.81310408737636</v>
       </c>
       <c r="AR33" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>389.87497304650259</v>
       </c>
       <c r="AS33" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>385.97622331603753</v>
       </c>
       <c r="AT33" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>382.11646108287715</v>
       </c>
       <c r="AU33" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>378.29529647204839</v>
       </c>
       <c r="AV33" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>374.5123435073279</v>
       </c>
       <c r="AW33" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>370.76722007225459</v>
       </c>
       <c r="AX33" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>367.05954787153206</v>
       </c>
       <c r="AY33" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>363.38895239281675</v>
       </c>
       <c r="AZ33" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>359.75506286888856</v>
       </c>
       <c r="BA33" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>356.15751224019965</v>
       </c>
       <c r="BB33" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>352.59593711779763</v>
       </c>
       <c r="BC33" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>349.06997774661966</v>
       </c>
       <c r="BD33" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>345.57927796915345</v>
       </c>
       <c r="BE33" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>342.12348518946192</v>
       </c>
       <c r="BF33" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>338.70225033756731</v>
       </c>
       <c r="BG33" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>335.3152278341916</v>
       </c>
       <c r="BH33" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>331.96207555584971</v>
       </c>
       <c r="BI33" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>328.6424548002912</v>
       </c>
       <c r="BJ33" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>325.35603025228829</v>
       </c>
       <c r="BK33" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>322.10246994976541</v>
       </c>
       <c r="BL33" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>318.88144525026775</v>
       </c>
       <c r="BM33" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>315.69263079776505</v>
       </c>
       <c r="BN33" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>312.53570448978741</v>
       </c>
       <c r="BO33" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>309.41034744488951</v>
       </c>
       <c r="BP33" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>306.31624397044061</v>
       </c>
       <c r="BQ33" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>303.25308153073621</v>
       </c>
       <c r="BR33" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>300.22055071542883</v>
       </c>
       <c r="BS33" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>297.21834520827451</v>
       </c>
       <c r="BT33" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>294.24616175619178</v>
       </c>
       <c r="BU33" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>291.30370013862984</v>
       </c>
       <c r="BV33" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>288.39066313724351</v>
       </c>
       <c r="BW33" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>285.50675650587107</v>
       </c>
       <c r="BX33" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>282.65168894081233</v>
       </c>
       <c r="BY33" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>279.82517205140419</v>
       </c>
       <c r="BZ33" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>277.02692033089016</v>
       </c>
       <c r="CA33" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>274.25665112758128</v>
       </c>
       <c r="CB33" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>271.51408461630547</v>
       </c>
       <c r="CC33" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>268.79894377014239</v>
       </c>
       <c r="CD33" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>266.11095433244094</v>
       </c>
       <c r="CE33" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>263.44984478911653</v>
       </c>
       <c r="CF33" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>260.81534634122534</v>
       </c>
       <c r="CG33" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>258.2071928778131</v>
       </c>
       <c r="CH33" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>255.62512094903497</v>
       </c>
       <c r="CI33" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>253.06886973954462</v>
       </c>
       <c r="CJ33" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>250.53818104214918</v>
       </c>
       <c r="CK33" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>248.03279923172769</v>
       </c>
       <c r="CL33" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>245.55247123941041</v>
       </c>
       <c r="CM33" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>243.09694652701631</v>
       </c>
       <c r="CN33" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>240.66597706174616</v>
       </c>
       <c r="CO33" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>238.2593172911287</v>
       </c>
       <c r="CP33" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>235.8767241182174</v>
       </c>
       <c r="CQ33" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>233.51795687703523</v>
       </c>
       <c r="CR33" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>231.18277730826489</v>
       </c>
       <c r="CS33" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>228.87094953518223</v>
       </c>
       <c r="CT33" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>226.5822400398304</v>
       </c>
       <c r="CU33" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>224.3164176394321</v>
       </c>
       <c r="CV33" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>222.07325346303779</v>
       </c>
       <c r="CW33" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>219.85252092840742</v>
       </c>
       <c r="CX33" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>217.65399571912334</v>
       </c>
       <c r="CY33" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>215.47745576193211</v>
       </c>
       <c r="CZ33" s="1">
-        <f t="shared" ref="CZ33:EZ33" si="43">CY33*(1+$AP$38)</f>
+        <f t="shared" ref="CZ33:EZ33" si="45">CY33*(1+$AP$38)</f>
         <v>213.32268120431277</v>
       </c>
       <c r="DA33" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>211.18945439226965</v>
       </c>
       <c r="DB33" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>209.07755984834697</v>
       </c>
       <c r="DC33" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>206.98678424986349</v>
       </c>
       <c r="DD33" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>204.91691640736485</v>
       </c>
       <c r="DE33" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>202.86774724329121</v>
       </c>
       <c r="DF33" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>200.83906977085829</v>
       </c>
       <c r="DG33" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>198.8306790731497</v>
       </c>
       <c r="DH33" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>196.84237228241821</v>
       </c>
       <c r="DI33" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>194.87394855959403</v>
       </c>
       <c r="DJ33" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>192.92520907399808</v>
       </c>
       <c r="DK33" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>190.99595698325808</v>
       </c>
       <c r="DL33" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>189.0859974134255</v>
       </c>
       <c r="DM33" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>187.19513743929124</v>
       </c>
       <c r="DN33" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>185.32318606489832</v>
       </c>
       <c r="DO33" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>183.46995420424935</v>
       </c>
       <c r="DP33" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>181.63525466220685</v>
       </c>
       <c r="DQ33" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>179.81890211558479</v>
       </c>
       <c r="DR33" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>178.02071309442894</v>
       </c>
       <c r="DS33" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>176.24050596348465</v>
       </c>
       <c r="DT33" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>174.47810090384979</v>
       </c>
       <c r="DU33" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>172.7333198948113</v>
       </c>
       <c r="DV33" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>171.00598669586319</v>
       </c>
       <c r="DW33" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>169.29592682890456</v>
       </c>
       <c r="DX33" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>167.6029675606155</v>
       </c>
       <c r="DY33" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>165.92693788500935</v>
       </c>
       <c r="DZ33" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>164.26766850615925</v>
       </c>
       <c r="EA33" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>162.62499182109767</v>
       </c>
       <c r="EB33" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>160.99874190288668</v>
       </c>
       <c r="EC33" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>159.38875448385781</v>
       </c>
       <c r="ED33" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>157.79486693901924</v>
       </c>
       <c r="EE33" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>156.21691826962905</v>
       </c>
       <c r="EF33" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>154.65474908693275</v>
       </c>
       <c r="EG33" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>153.10820159606342</v>
       </c>
       <c r="EH33" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>151.57711958010279</v>
       </c>
       <c r="EI33" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>150.06134838430177</v>
       </c>
       <c r="EJ33" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>148.56073490045875</v>
       </c>
       <c r="EK33" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>147.07512755145416</v>
       </c>
       <c r="EL33" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>145.60437627593961</v>
       </c>
       <c r="EM33" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>144.14833251318021</v>
       </c>
       <c r="EN33" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>142.70684918804841</v>
       </c>
       <c r="EO33" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>141.27978069616793</v>
       </c>
       <c r="EP33" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>139.86698288920624</v>
       </c>
       <c r="EQ33" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>138.46831306031419</v>
       </c>
       <c r="ER33" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>137.08362992971104</v>
       </c>
       <c r="ES33" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>135.71279363041393</v>
       </c>
       <c r="ET33" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>134.35566569410977</v>
       </c>
       <c r="EU33" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>133.01210903716867</v>
       </c>
       <c r="EV33" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>131.68198794679699</v>
       </c>
       <c r="EW33" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>130.36516806732902</v>
       </c>
       <c r="EX33" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>129.06151638665574</v>
       </c>
       <c r="EY33" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>127.77090122278918</v>
       </c>
       <c r="EZ33" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>126.49319221056129</v>
       </c>
     </row>
@@ -4942,79 +5010,79 @@
       <c r="Q34" s="5"/>
       <c r="R34" s="5"/>
       <c r="T34" s="5">
-        <f t="shared" ref="T34:Z34" si="44">879.6</f>
+        <f t="shared" ref="T34:Z34" si="46">879.6</f>
         <v>879.6</v>
       </c>
       <c r="U34" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>879.6</v>
       </c>
       <c r="V34" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>879.6</v>
       </c>
       <c r="W34" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>879.6</v>
       </c>
       <c r="X34" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>879.6</v>
       </c>
       <c r="Y34" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>879.6</v>
       </c>
       <c r="Z34" s="5">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>879.6</v>
       </c>
       <c r="AA34" s="5">
-        <f t="shared" ref="AA34:AL34" si="45">925.2</f>
+        <f t="shared" ref="AA34:AL34" si="47">925.2</f>
         <v>925.2</v>
       </c>
       <c r="AB34" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>925.2</v>
       </c>
       <c r="AC34" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>925.2</v>
       </c>
       <c r="AD34" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>925.2</v>
       </c>
       <c r="AE34" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>925.2</v>
       </c>
       <c r="AF34" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>925.2</v>
       </c>
       <c r="AG34" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>925.2</v>
       </c>
       <c r="AH34" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>925.2</v>
       </c>
       <c r="AI34" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>925.2</v>
       </c>
       <c r="AJ34" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>925.2</v>
       </c>
       <c r="AK34" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>925.2</v>
       </c>
       <c r="AL34" s="5">
-        <f t="shared" si="45"/>
+        <f t="shared" si="47"/>
         <v>925.2</v>
       </c>
     </row>
@@ -5023,35 +5091,35 @@
         <v>53</v>
       </c>
       <c r="G35" s="7">
-        <f t="shared" ref="G35:N35" si="46">G33/G34</f>
+        <f t="shared" ref="G35:N35" si="48">G33/G34</f>
         <v>-0.23487949067758068</v>
       </c>
       <c r="H35" s="7">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>-0.26875852660300137</v>
       </c>
       <c r="I35" s="7">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>-0.33014911463187324</v>
       </c>
       <c r="J35" s="7">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>-0.73033196907685338</v>
       </c>
       <c r="K35" s="7">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>-0.33617553433378805</v>
       </c>
       <c r="L35" s="7">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>-0.29797635288767615</v>
       </c>
       <c r="M35" s="7">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>-0.24592264678471576</v>
       </c>
       <c r="N35" s="7">
-        <f t="shared" si="46"/>
+        <f t="shared" si="48"/>
         <v>-1.4440121054907049</v>
       </c>
       <c r="O35" s="7"/>
@@ -5059,79 +5127,79 @@
       <c r="Q35" s="7"/>
       <c r="R35" s="7"/>
       <c r="T35" s="7">
-        <f t="shared" ref="T35:AB35" si="47">T33/T34</f>
+        <f t="shared" ref="T35:AB35" si="49">T33/T34</f>
         <v>-0.14438381082310139</v>
       </c>
       <c r="U35" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>-8.8676671214188235E-2</v>
       </c>
       <c r="V35" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>-9.7203274215552554E-2</v>
       </c>
       <c r="W35" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>-0.67758071850841306</v>
       </c>
       <c r="X35" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>-0.52307867212369263</v>
       </c>
       <c r="Y35" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>-0.82321509777171442</v>
       </c>
       <c r="Z35" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>-1.5561618917689859</v>
       </c>
       <c r="AA35" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>-2.2750756593169044</v>
       </c>
       <c r="AB35" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="49"/>
         <v>-0.78060262645914424</v>
       </c>
       <c r="AC35" s="7">
-        <f t="shared" ref="AC35:AL35" si="48">AC33/AC34</f>
+        <f t="shared" ref="AC35:AL35" si="50">AC33/AC34</f>
         <v>-0.54553272373540851</v>
       </c>
       <c r="AD35" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>-0.32290938531128377</v>
       </c>
       <c r="AE35" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>-0.11595749926653705</v>
       </c>
       <c r="AF35" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>-2.9953048841089763E-2</v>
       </c>
       <c r="AG35" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>4.6413436909473145E-2</v>
       </c>
       <c r="AH35" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0.12201939692196545</v>
       </c>
       <c r="AI35" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0.19599433353151122</v>
       </c>
       <c r="AJ35" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0.27267476271654845</v>
       </c>
       <c r="AK35" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0.35574186657323192</v>
       </c>
       <c r="AL35" s="7">
-        <f t="shared" si="48"/>
+        <f t="shared" si="50"/>
         <v>0.44758813566986305</v>
       </c>
     </row>
@@ -5140,7 +5208,7 @@
         <v>55</v>
       </c>
       <c r="K37" s="10">
-        <f t="shared" ref="K37:K42" si="49">K3/G3-1</f>
+        <f t="shared" ref="K37:K42" si="51">K3/G3-1</f>
         <v>-0.62493135639758379</v>
       </c>
       <c r="L37" s="10">
@@ -5148,32 +5216,44 @@
         <v>-0.64493758668515955</v>
       </c>
       <c r="M37" s="10">
-        <f t="shared" ref="M37:N42" si="50">M3/I3-1</f>
+        <f t="shared" ref="M37:N42" si="52">M3/I3-1</f>
         <v>-0.26188835286009648</v>
       </c>
       <c r="N37" s="10">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>-0.17748659916616993</v>
       </c>
-      <c r="O37" s="10"/>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="10"/>
-      <c r="R37" s="10"/>
+      <c r="O37" s="10">
+        <f t="shared" ref="O37:O42" si="53">O3/K3-1</f>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="P37" s="10">
+        <f t="shared" ref="P37:P42" si="54">P3/L3-1</f>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="Q37" s="10">
+        <f t="shared" ref="Q37:Q42" si="55">Q3/M3-1</f>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="R37" s="10">
+        <f t="shared" ref="R37:R42" si="56">R3/N3-1</f>
+        <v>0.10000000000000009</v>
+      </c>
       <c r="T37" s="10"/>
       <c r="U37" s="10">
-        <f t="shared" ref="U37:X42" si="51">U3/T3-1</f>
+        <f t="shared" ref="U37:X42" si="57">U3/T3-1</f>
         <v>0.71405750798722045</v>
       </c>
       <c r="V37" s="10">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>0.39701770736253494</v>
       </c>
       <c r="W37" s="10">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>-1.6290860573715809</v>
       </c>
       <c r="X37" s="10">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>-5.1654294803817606</v>
       </c>
       <c r="Y37" s="10">
@@ -5189,47 +5269,47 @@
         <v>-0.45136350857464147</v>
       </c>
       <c r="AB37" s="10">
-        <f t="shared" ref="AB37:AL42" si="52">AB3/AA3-1</f>
+        <f t="shared" ref="AB37:AL42" si="58">AB3/AA3-1</f>
         <v>0.5</v>
       </c>
       <c r="AC37" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>0.39999999999999991</v>
       </c>
       <c r="AD37" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AE37" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AF37" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AG37" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AH37" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AI37" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AJ37" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AK37" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AL37" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>0.10000000000000009</v>
       </c>
     </row>
@@ -5238,96 +5318,108 @@
         <v>56</v>
       </c>
       <c r="K38" s="10">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0.4285714285714286</v>
       </c>
       <c r="L38" s="10">
-        <f t="shared" ref="L38:L42" si="53">L4/H4-1</f>
+        <f t="shared" ref="L38:L42" si="59">L4/H4-1</f>
         <v>0.49425287356321856</v>
       </c>
       <c r="M38" s="10">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>0.51612903225806428</v>
       </c>
       <c r="N38" s="10">
-        <f t="shared" si="50"/>
+        <f t="shared" si="52"/>
         <v>8.3333333333333037E-3</v>
       </c>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="10"/>
-      <c r="R38" s="10"/>
+      <c r="O38" s="10">
+        <f t="shared" si="53"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="P38" s="10">
+        <f t="shared" si="54"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="Q38" s="10">
+        <f t="shared" si="55"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="R38" s="10">
+        <f t="shared" si="56"/>
+        <v>0.39999999999999991</v>
+      </c>
       <c r="T38" s="10"/>
       <c r="U38" s="10">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>0.35802469135802473</v>
       </c>
       <c r="V38" s="10">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>0.1454545454545455</v>
       </c>
       <c r="W38" s="10">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>-1.3888888888888888</v>
       </c>
       <c r="X38" s="10">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>-3.7244897959183669</v>
       </c>
       <c r="Y38" s="10">
-        <f t="shared" ref="Y38:Z42" si="54">Y4/X4-1</f>
+        <f t="shared" ref="Y38:Z42" si="60">Y4/X4-1</f>
         <v>0.32209737827715346</v>
       </c>
       <c r="Z38" s="10">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>0.10764872521246471</v>
       </c>
       <c r="AA38" s="10">
-        <f t="shared" ref="AA38" si="55">AA4/Z4-1</f>
+        <f t="shared" ref="AA38" si="61">AA4/Z4-1</f>
         <v>0.3350383631713556</v>
       </c>
       <c r="AB38" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>0.29999999999999982</v>
       </c>
       <c r="AC38" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>0.39999999999999991</v>
       </c>
       <c r="AD38" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>0.30000000000000004</v>
       </c>
       <c r="AE38" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AF38" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AG38" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AH38" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AI38" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AJ38" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AK38" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>0.10000000000000031</v>
       </c>
       <c r="AL38" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="AO38" t="s">
@@ -5342,96 +5434,108 @@
         <v>57</v>
       </c>
       <c r="K39" s="10">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1.3164556962025316</v>
       </c>
       <c r="L39" s="10">
+        <f t="shared" si="59"/>
+        <v>0.22360248447204945</v>
+      </c>
+      <c r="M39" s="10">
+        <f t="shared" si="52"/>
+        <v>1.990049751243772E-2</v>
+      </c>
+      <c r="N39" s="10">
+        <f t="shared" si="52"/>
+        <v>-1.5306122448979997E-2</v>
+      </c>
+      <c r="O39" s="10">
         <f t="shared" si="53"/>
-        <v>0.22360248447204945</v>
-      </c>
-      <c r="M39" s="10">
-        <f t="shared" si="50"/>
-        <v>1.990049751243772E-2</v>
-      </c>
-      <c r="N39" s="10">
-        <f t="shared" si="50"/>
-        <v>-1.5306122448979997E-2</v>
-      </c>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="10"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="P39" s="10">
+        <f t="shared" si="54"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="Q39" s="10">
+        <f t="shared" si="55"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="R39" s="10">
+        <f t="shared" si="56"/>
+        <v>0.19999999999999996</v>
+      </c>
       <c r="T39" s="10"/>
       <c r="U39" s="10">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>0.77519379844961223</v>
       </c>
       <c r="V39" s="10">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>0.13100436681222716</v>
       </c>
       <c r="W39" s="10">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>2.7027027027027195E-2</v>
       </c>
       <c r="X39" s="10">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>0.32330827067669166</v>
       </c>
       <c r="Y39" s="10">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>0.34090909090909083</v>
       </c>
       <c r="Z39" s="10">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>0.34957627118644075</v>
       </c>
       <c r="AA39" s="10">
-        <f t="shared" ref="AA39" si="56">AA5/Z5-1</f>
+        <f t="shared" ref="AA39" si="62">AA5/Z5-1</f>
         <v>0.22135007849293564</v>
       </c>
       <c r="AB39" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="AC39" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="AD39" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>0.12000000000000011</v>
       </c>
       <c r="AE39" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>9.0000000000000302E-2</v>
       </c>
       <c r="AF39" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>8.0000000000000071E-2</v>
       </c>
       <c r="AG39" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>7.0000000000000062E-2</v>
       </c>
       <c r="AH39" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AI39" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AJ39" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AK39" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AL39" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AO39" t="s">
@@ -5446,96 +5550,108 @@
         <v>58</v>
       </c>
       <c r="K40" s="10">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>0.81188118811881194</v>
       </c>
       <c r="L40" s="10">
+        <f t="shared" si="59"/>
+        <v>0.67039106145251393</v>
+      </c>
+      <c r="M40" s="10">
+        <f t="shared" si="52"/>
+        <v>0.53608247422680422</v>
+      </c>
+      <c r="N40" s="10">
+        <f t="shared" si="52"/>
+        <v>5.8510638297872619E-2</v>
+      </c>
+      <c r="O40" s="10">
         <f t="shared" si="53"/>
-        <v>0.67039106145251393</v>
-      </c>
-      <c r="M40" s="10">
-        <f t="shared" si="50"/>
-        <v>0.53608247422680422</v>
-      </c>
-      <c r="N40" s="10">
-        <f t="shared" si="50"/>
-        <v>5.8510638297872619E-2</v>
-      </c>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="10"/>
-      <c r="R40" s="10"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="P40" s="10">
+        <f t="shared" si="54"/>
+        <v>-0.25000000000000011</v>
+      </c>
+      <c r="Q40" s="10">
+        <f t="shared" si="55"/>
+        <v>-0.19999999999999996</v>
+      </c>
+      <c r="R40" s="10">
+        <f t="shared" si="56"/>
+        <v>0.19999999999999996</v>
+      </c>
       <c r="T40" s="10"/>
       <c r="U40" s="10">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>1.7439024390243905</v>
       </c>
       <c r="V40" s="10">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>0.29333333333333345</v>
       </c>
       <c r="W40" s="10">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>-1.5532646048109966</v>
       </c>
       <c r="X40" s="10">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>-3.9130434782608692</v>
       </c>
       <c r="Y40" s="10">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>0.21961620469083165</v>
       </c>
       <c r="Z40" s="10">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>0.15734265734265729</v>
       </c>
       <c r="AA40" s="10">
-        <f t="shared" ref="AA40" si="57">AA6/Z6-1</f>
+        <f t="shared" ref="AA40" si="63">AA6/Z6-1</f>
         <v>0.47885196374622363</v>
       </c>
       <c r="AB40" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>0.39999999999999991</v>
       </c>
       <c r="AC40" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>0.25</v>
       </c>
       <c r="AD40" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="AE40" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>0.12000000000000011</v>
       </c>
       <c r="AF40" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>9.000000000000008E-2</v>
       </c>
       <c r="AG40" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>7.0000000000000062E-2</v>
       </c>
       <c r="AH40" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AI40" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AJ40" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AK40" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AL40" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AO40" t="s">
@@ -5551,93 +5667,105 @@
         <v>59</v>
       </c>
       <c r="K41" s="10">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1.4</v>
       </c>
       <c r="L41" s="10">
+        <f t="shared" si="59"/>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="M41" s="10">
+        <f t="shared" si="52"/>
+        <v>-0.55102040816326525</v>
+      </c>
+      <c r="N41" s="10">
+        <f t="shared" si="52"/>
+        <v>-0.45945945945945987</v>
+      </c>
+      <c r="O41" s="10">
         <f t="shared" si="53"/>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="M41" s="10">
-        <f t="shared" si="50"/>
-        <v>-0.55102040816326525</v>
-      </c>
-      <c r="N41" s="10">
-        <f t="shared" si="50"/>
-        <v>-0.45945945945945987</v>
-      </c>
-      <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="10"/>
-      <c r="R41" s="10"/>
+        <v>0.25</v>
+      </c>
+      <c r="P41" s="10">
+        <f t="shared" si="54"/>
+        <v>-0.25</v>
+      </c>
+      <c r="Q41" s="10">
+        <f t="shared" si="55"/>
+        <v>0.36363636363636354</v>
+      </c>
+      <c r="R41" s="10">
+        <f t="shared" si="56"/>
+        <v>0.50000000000000111</v>
+      </c>
       <c r="T41" s="10"/>
       <c r="U41" s="10">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>-1</v>
       </c>
       <c r="V41" s="10"/>
       <c r="W41" s="10">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>0.49999999999999978</v>
       </c>
       <c r="X41" s="10">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>1.666666666666667</v>
       </c>
       <c r="Y41" s="10">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>2.4999999999999996</v>
       </c>
       <c r="Z41" s="10">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>2.8571428571428577</v>
       </c>
       <c r="AA41" s="10">
-        <f t="shared" ref="AA41" si="58">AA7/Z7-1</f>
+        <f t="shared" ref="AA41" si="64">AA7/Z7-1</f>
         <v>-1.8518518518518601E-2</v>
       </c>
       <c r="AB41" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>0.12000000000000011</v>
       </c>
       <c r="AC41" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>0.12000000000000011</v>
       </c>
       <c r="AD41" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>0.12000000000000011</v>
       </c>
       <c r="AE41" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>0.12000000000000011</v>
       </c>
       <c r="AF41" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>0.12000000000000011</v>
       </c>
       <c r="AG41" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>0.12000000000000011</v>
       </c>
       <c r="AH41" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>0.12000000000000011</v>
       </c>
       <c r="AI41" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>0.12000000000000011</v>
       </c>
       <c r="AJ41" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>0.12000000000000011</v>
       </c>
       <c r="AK41" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>0.12000000000000011</v>
       </c>
       <c r="AL41" s="10">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>0.12000000000000011</v>
       </c>
       <c r="AO41" t="s">
@@ -5653,96 +5781,108 @@
         <v>60</v>
       </c>
       <c r="K42" s="11">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>-0.42768791627021885</v>
       </c>
       <c r="L42" s="11">
+        <f t="shared" si="59"/>
+        <v>-0.44888547271329737</v>
+      </c>
+      <c r="M42" s="11">
+        <f t="shared" si="52"/>
+        <v>-0.12625754527162991</v>
+      </c>
+      <c r="N42" s="11">
+        <f t="shared" si="52"/>
+        <v>-0.13783783783783754</v>
+      </c>
+      <c r="O42" s="11">
         <f t="shared" si="53"/>
-        <v>-0.44888547271329737</v>
-      </c>
-      <c r="M42" s="11">
-        <f t="shared" si="50"/>
-        <v>-0.12625754527162991</v>
-      </c>
-      <c r="N42" s="11">
-        <f t="shared" si="50"/>
-        <v>-0.13783783783783754</v>
-      </c>
-      <c r="O42" s="11"/>
-      <c r="P42" s="11"/>
-      <c r="Q42" s="11"/>
-      <c r="R42" s="11"/>
+        <v>8.2211138819617613E-2</v>
+      </c>
+      <c r="P42" s="11">
+        <f t="shared" si="54"/>
+        <v>7.0815899581589958E-2</v>
+      </c>
+      <c r="Q42" s="11">
+        <f t="shared" si="55"/>
+        <v>5.1871042026482517E-2</v>
+      </c>
+      <c r="R42" s="11">
+        <f t="shared" si="56"/>
+        <v>0.14362591431556959</v>
+      </c>
       <c r="T42" s="11"/>
       <c r="U42" s="11">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>0.74351297405189642</v>
       </c>
       <c r="V42" s="11">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>0.31825987406983369</v>
       </c>
       <c r="W42" s="11">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>-1.4051237516283108</v>
       </c>
       <c r="X42" s="11">
-        <f t="shared" si="51"/>
+        <f t="shared" si="57"/>
         <v>-6.384780278670954</v>
       </c>
       <c r="Y42" s="11">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>0.3960987261146498</v>
       </c>
       <c r="Z42" s="11">
-        <f t="shared" si="54"/>
+        <f t="shared" si="60"/>
         <v>0.27060165383518697</v>
       </c>
       <c r="AA42" s="11">
-        <f t="shared" ref="AA42" si="59">AA8/Z8-1</f>
+        <f t="shared" ref="AA42" si="65">AA8/Z8-1</f>
         <v>-0.29443447037701986</v>
       </c>
       <c r="AB42" s="11">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>0.42430343511450386</v>
       </c>
       <c r="AC42" s="11">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>0.34727215883841267</v>
       </c>
       <c r="AD42" s="11">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>0.26070206084164194</v>
       </c>
       <c r="AE42" s="11">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>0.18015989714177216</v>
       </c>
       <c r="AF42" s="11">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>9.7496453392747817E-2</v>
       </c>
       <c r="AG42" s="11">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>9.4371928359691326E-2</v>
       </c>
       <c r="AH42" s="11">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>8.7133070063928564E-2</v>
       </c>
       <c r="AI42" s="11">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>8.6491637853740366E-2</v>
       </c>
       <c r="AJ42" s="11">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>8.7293019283034567E-2</v>
       </c>
       <c r="AK42" s="11">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>8.8057006671552029E-2</v>
       </c>
       <c r="AL42" s="11">
-        <f t="shared" si="52"/>
+        <f t="shared" si="58"/>
         <v>8.8784343391920872E-2</v>
       </c>
       <c r="AO42" t="s">
@@ -5758,19 +5898,19 @@
         <v>61</v>
       </c>
       <c r="G43" s="10">
-        <f t="shared" ref="G43:H43" si="60">(G3-G9)/G3</f>
+        <f t="shared" ref="G43:H43" si="66">(G3-G9)/G3</f>
         <v>0.13069741900054907</v>
       </c>
       <c r="H43" s="10">
-        <f t="shared" si="60"/>
+        <f t="shared" si="66"/>
         <v>0.13361072584373557</v>
       </c>
       <c r="I43" s="10">
-        <f t="shared" ref="I43:J43" si="61">(I3-I9)/I3</f>
+        <f t="shared" ref="I43:J43" si="67">(I3-I9)/I3</f>
         <v>-9.5796002756719553E-2</v>
       </c>
       <c r="J43" s="10">
-        <f t="shared" si="61"/>
+        <f t="shared" si="67"/>
         <v>-0.55390113162596855</v>
       </c>
       <c r="K43" s="10">
@@ -5782,35 +5922,47 @@
         <v>-0.69140625000000011</v>
       </c>
       <c r="M43" s="10">
-        <f t="shared" ref="M43:N43" si="62">(M3-M9)/M3</f>
+        <f t="shared" ref="M43:N43" si="68">(M3-M9)/M3</f>
         <v>-0.39962651727357623</v>
       </c>
       <c r="N43" s="10">
-        <f t="shared" si="62"/>
+        <f t="shared" si="68"/>
         <v>-1.0362056480811006</v>
       </c>
-      <c r="O43" s="10"/>
-      <c r="P43" s="10"/>
-      <c r="Q43" s="10"/>
-      <c r="R43" s="10"/>
+      <c r="O43" s="10">
+        <f t="shared" ref="O43:R43" si="69">(O3-O9)/O3</f>
+        <v>1</v>
+      </c>
+      <c r="P43" s="10">
+        <f t="shared" si="69"/>
+        <v>1</v>
+      </c>
+      <c r="Q43" s="10">
+        <f t="shared" si="69"/>
+        <v>1</v>
+      </c>
+      <c r="R43" s="10">
+        <f t="shared" si="69"/>
+        <v>1</v>
+      </c>
       <c r="T43" s="10">
-        <f t="shared" ref="T43:X43" si="63">(T3-T9)/T3</f>
+        <f t="shared" ref="T43:X43" si="70">(T3-T9)/T3</f>
         <v>0.12460063897763585</v>
       </c>
       <c r="U43" s="10">
-        <f t="shared" si="63"/>
+        <f t="shared" si="70"/>
         <v>0.21342031686859267</v>
       </c>
       <c r="V43" s="10">
-        <f t="shared" si="63"/>
+        <f t="shared" si="70"/>
         <v>0.35356904603068712</v>
       </c>
       <c r="W43" s="10">
-        <f t="shared" si="63"/>
+        <f t="shared" si="70"/>
         <v>2.8176033934252387</v>
       </c>
       <c r="X43" s="10">
-        <f t="shared" si="63"/>
+        <f t="shared" si="70"/>
         <v>0.21792260692464363</v>
       </c>
       <c r="Y43" s="10">
@@ -5826,47 +5978,47 @@
         <v>-0.7834998718934153</v>
       </c>
       <c r="AB43" s="10">
-        <f t="shared" ref="AB43:AL43" si="64">(AB3-AB9)/AB3</f>
+        <f t="shared" ref="AB43:AL43" si="71">(AB3-AB9)/AB3</f>
         <v>-0.15</v>
       </c>
       <c r="AC43" s="10">
-        <f t="shared" si="64"/>
+        <f t="shared" si="71"/>
         <v>9.9999999999999964E-2</v>
       </c>
       <c r="AD43" s="10">
-        <f t="shared" si="64"/>
+        <f t="shared" si="71"/>
         <v>0.24</v>
       </c>
       <c r="AE43" s="10">
-        <f t="shared" si="64"/>
+        <f t="shared" si="71"/>
         <v>0.31999999999999995</v>
       </c>
       <c r="AF43" s="10">
-        <f t="shared" si="64"/>
+        <f t="shared" si="71"/>
         <v>0.33999999999999997</v>
       </c>
       <c r="AG43" s="10">
-        <f t="shared" si="64"/>
+        <f t="shared" si="71"/>
         <v>0.34999999999999992</v>
       </c>
       <c r="AH43" s="10">
-        <f t="shared" si="64"/>
+        <f t="shared" si="71"/>
         <v>0.36</v>
       </c>
       <c r="AI43" s="10">
-        <f t="shared" si="64"/>
+        <f t="shared" si="71"/>
         <v>0.35999999999999993</v>
       </c>
       <c r="AJ43" s="10">
-        <f t="shared" si="64"/>
+        <f t="shared" si="71"/>
         <v>0.36000000000000004</v>
       </c>
       <c r="AK43" s="10">
-        <f t="shared" si="64"/>
+        <f t="shared" si="71"/>
         <v>0.35999999999999993</v>
       </c>
       <c r="AL43" s="10">
-        <f t="shared" si="64"/>
+        <f t="shared" si="71"/>
         <v>0.35999999999999993</v>
       </c>
       <c r="AO43" t="s">
@@ -5882,19 +6034,19 @@
         <v>62</v>
       </c>
       <c r="G44" s="10">
-        <f t="shared" ref="G44:H44" si="65">(G4-G10-G11)/G4</f>
+        <f t="shared" ref="G44:H44" si="72">(G4-G10-G11)/G4</f>
         <v>-1.098901098901099</v>
       </c>
       <c r="H44" s="10">
-        <f t="shared" si="65"/>
+        <f t="shared" si="72"/>
         <v>-2.5287356321839081</v>
       </c>
       <c r="I44" s="10">
-        <f t="shared" ref="I44:J44" si="66">(I4-I10-I11)/I4</f>
+        <f t="shared" ref="I44:J44" si="73">(I4-I10-I11)/I4</f>
         <v>-5.397849462365591</v>
       </c>
       <c r="J44" s="10">
-        <f t="shared" si="66"/>
+        <f t="shared" si="73"/>
         <v>-3.3666666666666667</v>
       </c>
       <c r="K44" s="10">
@@ -5906,35 +6058,47 @@
         <v>-1.323076923076923</v>
       </c>
       <c r="M44" s="10">
-        <f t="shared" ref="M44:N44" si="67">(M4-M10-M11)/M4</f>
+        <f t="shared" ref="M44:N44" si="74">(M4-M10-M11)/M4</f>
         <v>-7.0921985815602842E-2</v>
       </c>
       <c r="N44" s="10">
-        <f t="shared" si="67"/>
+        <f t="shared" si="74"/>
         <v>-1.6694214876033056</v>
       </c>
-      <c r="O44" s="10"/>
-      <c r="P44" s="10"/>
-      <c r="Q44" s="10"/>
-      <c r="R44" s="10"/>
+      <c r="O44" s="10">
+        <f t="shared" ref="O44:R44" si="75">(O4-O10-O11)/O4</f>
+        <v>1</v>
+      </c>
+      <c r="P44" s="10">
+        <f t="shared" si="75"/>
+        <v>1</v>
+      </c>
+      <c r="Q44" s="10">
+        <f t="shared" si="75"/>
+        <v>1</v>
+      </c>
+      <c r="R44" s="10">
+        <f t="shared" si="75"/>
+        <v>1</v>
+      </c>
       <c r="T44" s="10">
-        <f t="shared" ref="T44:X44" si="68">(T4-T10-T11)/T4</f>
+        <f t="shared" ref="T44:X44" si="76">(T4-T10-T11)/T4</f>
         <v>-0.22222222222222232</v>
       </c>
       <c r="U44" s="10">
-        <f t="shared" si="68"/>
+        <f t="shared" si="76"/>
         <v>-7.7272727272727243E-2</v>
       </c>
       <c r="V44" s="10">
-        <f t="shared" si="68"/>
+        <f t="shared" si="76"/>
         <v>-0.1428571428571429</v>
       </c>
       <c r="W44" s="10">
-        <f t="shared" si="68"/>
+        <f t="shared" si="76"/>
         <v>8.9591836734693864</v>
       </c>
       <c r="X44" s="10">
-        <f t="shared" si="68"/>
+        <f t="shared" si="76"/>
         <v>-4.0823970037453181</v>
       </c>
       <c r="Y44" s="10">
@@ -5950,47 +6114,47 @@
         <v>-1.0363984674329501</v>
       </c>
       <c r="AB44" s="10">
-        <f t="shared" ref="AB44:AL44" si="69">(AB4-AB10-AB11)/AB4</f>
+        <f t="shared" ref="AB44:AL44" si="77">(AB4-AB10-AB11)/AB4</f>
         <v>-0.44414972001178898</v>
       </c>
       <c r="AC44" s="10">
-        <f t="shared" si="69"/>
+        <f t="shared" si="77"/>
         <v>-9.244789693065561E-2</v>
       </c>
       <c r="AD44" s="10">
-        <f t="shared" si="69"/>
+        <f t="shared" si="77"/>
         <v>5.213276202135611E-2</v>
       </c>
       <c r="AE44" s="10">
-        <f t="shared" si="69"/>
+        <f t="shared" si="77"/>
         <v>0.14318725883606501</v>
       </c>
       <c r="AF44" s="10">
-        <f t="shared" si="69"/>
+        <f t="shared" si="77"/>
         <v>0.15058385412995481</v>
       </c>
       <c r="AG44" s="10">
-        <f t="shared" si="69"/>
+        <f t="shared" si="77"/>
         <v>0.16147702174459241</v>
       </c>
       <c r="AH44" s="10">
-        <f t="shared" si="69"/>
+        <f t="shared" si="77"/>
         <v>0.1791371571198383</v>
       </c>
       <c r="AI44" s="10">
-        <f t="shared" si="69"/>
+        <f t="shared" si="77"/>
         <v>0.20273751984857583</v>
       </c>
       <c r="AJ44" s="10">
-        <f t="shared" si="69"/>
+        <f t="shared" si="77"/>
         <v>0.22483604131275739</v>
       </c>
       <c r="AK44" s="10">
-        <f t="shared" si="69"/>
+        <f t="shared" si="77"/>
         <v>0.24552829322921826</v>
       </c>
       <c r="AL44" s="10">
-        <f t="shared" si="69"/>
+        <f t="shared" si="77"/>
         <v>0.26490376547826805</v>
       </c>
       <c r="AO44" t="s">
@@ -6006,19 +6170,19 @@
         <v>63</v>
       </c>
       <c r="G45" s="10">
-        <f t="shared" ref="G45:H45" si="70">(G5-G12)/G5</f>
+        <f t="shared" ref="G45:H45" si="78">(G5-G12)/G5</f>
         <v>-4.924050632911392</v>
       </c>
       <c r="H45" s="10">
-        <f t="shared" si="70"/>
+        <f t="shared" si="78"/>
         <v>-2.354037267080745</v>
       </c>
       <c r="I45" s="10">
-        <f t="shared" ref="I45:J45" si="71">(I5-I12)/I5</f>
+        <f t="shared" ref="I45:J45" si="79">(I5-I12)/I5</f>
         <v>-1.8358208955223878</v>
       </c>
       <c r="J45" s="10">
-        <f t="shared" si="71"/>
+        <f t="shared" si="79"/>
         <v>-2.1173469387755106</v>
       </c>
       <c r="K45" s="10">
@@ -6030,35 +6194,47 @@
         <v>-1.7563451776649743</v>
       </c>
       <c r="M45" s="10">
-        <f t="shared" ref="M45:N45" si="72">(M5-M12)/M5</f>
+        <f t="shared" ref="M45:N45" si="80">(M5-M12)/M5</f>
         <v>-1.5268292682926827</v>
       </c>
       <c r="N45" s="10">
-        <f t="shared" si="72"/>
+        <f t="shared" si="80"/>
         <v>-1.8808290155440435</v>
       </c>
-      <c r="O45" s="10"/>
-      <c r="P45" s="10"/>
-      <c r="Q45" s="10"/>
-      <c r="R45" s="10"/>
+      <c r="O45" s="10">
+        <f t="shared" ref="O45:R45" si="81">(O5-O12)/O5</f>
+        <v>1</v>
+      </c>
+      <c r="P45" s="10">
+        <f t="shared" si="81"/>
+        <v>1</v>
+      </c>
+      <c r="Q45" s="10">
+        <f t="shared" si="81"/>
+        <v>1</v>
+      </c>
+      <c r="R45" s="10">
+        <f t="shared" si="81"/>
+        <v>1</v>
+      </c>
       <c r="T45" s="10">
-        <f t="shared" ref="T45:X45" si="73">(T5-T12)/T5</f>
+        <f t="shared" ref="T45:X45" si="82">(T5-T12)/T5</f>
         <v>-1.4263565891472867</v>
       </c>
       <c r="U45" s="10">
-        <f t="shared" si="73"/>
+        <f t="shared" si="82"/>
         <v>-0.58078602620087361</v>
       </c>
       <c r="V45" s="10">
-        <f t="shared" si="73"/>
+        <f t="shared" si="82"/>
         <v>-0.54826254826254839</v>
       </c>
       <c r="W45" s="10">
-        <f t="shared" si="73"/>
+        <f t="shared" si="82"/>
         <v>-1.4285714285714282</v>
       </c>
       <c r="X45" s="10">
-        <f t="shared" si="73"/>
+        <f t="shared" si="82"/>
         <v>-1.9090909090909089</v>
       </c>
       <c r="Y45" s="10">
@@ -6074,47 +6250,47 @@
         <v>-1.7879177377892035</v>
       </c>
       <c r="AB45" s="10">
-        <f t="shared" ref="AB45:AL45" si="74">(AB5-AB12)/AB5</f>
+        <f t="shared" ref="AB45:AL45" si="83">(AB5-AB12)/AB5</f>
         <v>-1.2000000000000002</v>
       </c>
       <c r="AC45" s="10">
-        <f t="shared" si="74"/>
+        <f t="shared" si="83"/>
         <v>-0.79999999999999993</v>
       </c>
       <c r="AD45" s="10">
-        <f t="shared" si="74"/>
+        <f t="shared" si="83"/>
         <v>-0.5</v>
       </c>
       <c r="AE45" s="10">
-        <f t="shared" si="74"/>
+        <f t="shared" si="83"/>
         <v>-0.2</v>
       </c>
       <c r="AF45" s="10">
-        <f t="shared" si="74"/>
+        <f t="shared" si="83"/>
         <v>-0.10000000000000002</v>
       </c>
       <c r="AG45" s="10">
-        <f t="shared" si="74"/>
+        <f t="shared" si="83"/>
         <v>-0.05</v>
       </c>
       <c r="AH45" s="10">
-        <f t="shared" si="74"/>
+        <f t="shared" si="83"/>
         <v>0</v>
       </c>
       <c r="AI45" s="10">
-        <f t="shared" si="74"/>
+        <f t="shared" si="83"/>
         <v>5.0000000000000107E-2</v>
       </c>
       <c r="AJ45" s="10">
-        <f t="shared" si="74"/>
+        <f t="shared" si="83"/>
         <v>6.9999999999999923E-2</v>
       </c>
       <c r="AK45" s="10">
-        <f t="shared" si="74"/>
+        <f t="shared" si="83"/>
         <v>7.999999999999996E-2</v>
       </c>
       <c r="AL45" s="10">
-        <f t="shared" si="74"/>
+        <f t="shared" si="83"/>
         <v>8.9999999999999983E-2</v>
       </c>
       <c r="AO45" s="1" t="s">
@@ -6130,115 +6306,127 @@
         <v>64</v>
       </c>
       <c r="G46" s="10">
-        <f t="shared" ref="G46:H46" si="75">(G6-G13)/G6</f>
+        <f t="shared" ref="G46:H46" si="84">(G6-G13)/G6</f>
         <v>-4.3960396039603964</v>
       </c>
       <c r="H46" s="10">
-        <f t="shared" si="75"/>
+        <f t="shared" si="84"/>
         <v>-2.603351955307263</v>
       </c>
       <c r="I46" s="10">
-        <f t="shared" ref="I46:J46" si="76">(I6-I13)/I6</f>
+        <f t="shared" ref="I46:J46" si="85">(I6-I13)/I6</f>
         <v>-2.0412371134020622</v>
       </c>
       <c r="J46" s="10">
-        <f t="shared" si="76"/>
+        <f t="shared" si="85"/>
         <v>-2.6329787234042552</v>
       </c>
       <c r="K46" s="10">
-        <f t="shared" ref="K46:L47" si="77">(K6-K13)/K6</f>
+        <f t="shared" ref="K46:L47" si="86">(K6-K13)/K6</f>
         <v>-2.2021857923497263</v>
       </c>
       <c r="L46" s="10">
-        <f t="shared" si="77"/>
+        <f t="shared" si="86"/>
         <v>-0.94983277591973247</v>
       </c>
       <c r="M46" s="10">
-        <f t="shared" ref="M46:N46" si="78">(M6-M13)/M6</f>
+        <f t="shared" ref="M46:N46" si="87">(M6-M13)/M6</f>
         <v>-0.86241610738255026</v>
       </c>
       <c r="N46" s="10">
-        <f t="shared" si="78"/>
+        <f t="shared" si="87"/>
         <v>-1.834170854271356</v>
       </c>
-      <c r="O46" s="10"/>
-      <c r="P46" s="10"/>
-      <c r="Q46" s="10"/>
-      <c r="R46" s="10"/>
+      <c r="O46" s="10">
+        <f t="shared" ref="O46:R46" si="88">(O6-O13)/O6</f>
+        <v>1</v>
+      </c>
+      <c r="P46" s="10">
+        <f t="shared" si="88"/>
+        <v>1</v>
+      </c>
+      <c r="Q46" s="10">
+        <f t="shared" si="88"/>
+        <v>1</v>
+      </c>
+      <c r="R46" s="10">
+        <f t="shared" si="88"/>
+        <v>1</v>
+      </c>
       <c r="T46" s="10">
-        <f t="shared" ref="T46:X46" si="79">(T6-T13)/T6</f>
+        <f t="shared" ref="T46:X46" si="89">(T6-T13)/T6</f>
         <v>-1.6829268292682928</v>
       </c>
       <c r="U46" s="10">
-        <f t="shared" si="79"/>
+        <f t="shared" si="89"/>
         <v>-0.23111111111111107</v>
       </c>
       <c r="V46" s="10">
-        <f t="shared" si="79"/>
+        <f t="shared" si="89"/>
         <v>-0.25085910652920951</v>
       </c>
       <c r="W46" s="10">
-        <f t="shared" si="79"/>
+        <f t="shared" si="89"/>
         <v>4.8385093167701863</v>
       </c>
       <c r="X46" s="10">
-        <f t="shared" si="79"/>
+        <f t="shared" si="89"/>
         <v>-1.7121535181236676</v>
       </c>
       <c r="Y46" s="10">
-        <f t="shared" ref="Y46:Z46" si="80">(Y6-Y13)/Y6</f>
+        <f t="shared" ref="Y46:Z46" si="90">(Y6-Y13)/Y6</f>
         <v>-2.3968531468531471</v>
       </c>
       <c r="Z46" s="10">
-        <f t="shared" si="80"/>
+        <f t="shared" si="90"/>
         <v>-2.7205438066465257</v>
       </c>
       <c r="AA46" s="10">
-        <f t="shared" ref="AA46:AL46" si="81">(AA6-AA13)/AA6</f>
+        <f t="shared" ref="AA46:AL46" si="91">(AA6-AA13)/AA6</f>
         <v>-1.3370786516853932</v>
       </c>
       <c r="AB46" s="10">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>-0.55000000000000004</v>
       </c>
       <c r="AC46" s="10">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>-0.30000000000000004</v>
       </c>
       <c r="AD46" s="10">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>-0.14999999999999986</v>
       </c>
       <c r="AE46" s="10">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>-5.0000000000000031E-2</v>
       </c>
       <c r="AF46" s="10">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>0</v>
       </c>
       <c r="AG46" s="10">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>4.0000000000000077E-2</v>
       </c>
       <c r="AH46" s="10">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>3.000000000000002E-2</v>
       </c>
       <c r="AI46" s="10">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>3.9999999999999966E-2</v>
       </c>
       <c r="AJ46" s="10">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>5.0000000000000072E-2</v>
       </c>
       <c r="AK46" s="10">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>5.9999999999999984E-2</v>
       </c>
       <c r="AL46" s="10">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>6.9999999999999882E-2</v>
       </c>
       <c r="AO46" t="s">
@@ -6253,112 +6441,124 @@
         <v>65</v>
       </c>
       <c r="G47" s="10">
-        <f t="shared" ref="G47:H47" si="82">(G7-G14)/G7</f>
+        <f t="shared" ref="G47:H47" si="92">(G7-G14)/G7</f>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="H47" s="10">
-        <f t="shared" si="82"/>
+        <f t="shared" si="92"/>
         <v>-0.41666666666666669</v>
       </c>
       <c r="I47" s="10">
-        <f t="shared" ref="I47:J47" si="83">(I7-I14)/I7</f>
+        <f t="shared" ref="I47:J47" si="93">(I7-I14)/I7</f>
         <v>0.55102040816326525</v>
       </c>
       <c r="J47" s="10">
-        <f t="shared" si="83"/>
+        <f t="shared" si="93"/>
         <v>0.54054054054054068</v>
       </c>
       <c r="K47" s="10">
-        <f t="shared" si="77"/>
+        <f t="shared" si="86"/>
         <v>0.29166666666666669</v>
       </c>
       <c r="L47" s="10">
-        <f t="shared" si="77"/>
+        <f t="shared" si="86"/>
         <v>0.52500000000000002</v>
       </c>
       <c r="M47" s="10">
-        <f t="shared" ref="M47:N47" si="84">(M7-M14)/M7</f>
+        <f t="shared" ref="M47:N47" si="94">(M7-M14)/M7</f>
         <v>0.3636363636363637</v>
       </c>
       <c r="N47" s="10">
-        <f t="shared" si="84"/>
+        <f t="shared" si="94"/>
         <v>0.74999999999999989</v>
       </c>
-      <c r="O47" s="10"/>
-      <c r="P47" s="10"/>
-      <c r="Q47" s="10"/>
-      <c r="R47" s="10"/>
+      <c r="O47" s="10">
+        <f t="shared" ref="O47:R47" si="95">(O7-O14)/O7</f>
+        <v>1</v>
+      </c>
+      <c r="P47" s="10">
+        <f t="shared" si="95"/>
+        <v>1</v>
+      </c>
+      <c r="Q47" s="10">
+        <f t="shared" si="95"/>
+        <v>1</v>
+      </c>
+      <c r="R47" s="10">
+        <f t="shared" si="95"/>
+        <v>1</v>
+      </c>
       <c r="T47" s="10">
-        <f t="shared" ref="T47:X47" si="85">(T7-T14)/T7</f>
+        <f t="shared" ref="T47:X47" si="96">(T7-T14)/T7</f>
         <v>0</v>
       </c>
       <c r="U47" s="10"/>
       <c r="V47" s="10">
-        <f t="shared" si="85"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="W47" s="10">
-        <f t="shared" si="85"/>
+        <f t="shared" si="96"/>
         <v>0</v>
       </c>
       <c r="X47" s="10">
-        <f t="shared" si="85"/>
+        <f t="shared" si="96"/>
         <v>-0.49999999999999989</v>
       </c>
       <c r="Y47" s="10">
-        <f t="shared" ref="Y47:Z47" si="86">(Y7-Y14)/Y7</f>
+        <f t="shared" ref="Y47:Z47" si="97">(Y7-Y14)/Y7</f>
         <v>7.1428571428571341E-2</v>
       </c>
       <c r="Z47" s="10">
-        <f t="shared" si="86"/>
+        <f t="shared" si="97"/>
         <v>0.3981481481481482</v>
       </c>
       <c r="AA47" s="10">
-        <f t="shared" ref="AA47:AL47" si="87">(AA7-AA14)/AA7</f>
+        <f t="shared" ref="AA47:AL47" si="98">(AA7-AA14)/AA7</f>
         <v>0.48113207547169812</v>
       </c>
       <c r="AB47" s="10">
-        <f t="shared" si="87"/>
+        <f t="shared" si="98"/>
         <v>0.5</v>
       </c>
       <c r="AC47" s="10">
-        <f t="shared" si="87"/>
+        <f t="shared" si="98"/>
         <v>0.5</v>
       </c>
       <c r="AD47" s="10">
-        <f t="shared" si="87"/>
+        <f t="shared" si="98"/>
         <v>0.5</v>
       </c>
       <c r="AE47" s="10">
-        <f t="shared" si="87"/>
+        <f t="shared" si="98"/>
         <v>0.5</v>
       </c>
       <c r="AF47" s="10">
-        <f t="shared" si="87"/>
+        <f t="shared" si="98"/>
         <v>0.5</v>
       </c>
       <c r="AG47" s="10">
-        <f t="shared" si="87"/>
+        <f t="shared" si="98"/>
         <v>0.5</v>
       </c>
       <c r="AH47" s="10">
-        <f t="shared" si="87"/>
+        <f t="shared" si="98"/>
         <v>0.5</v>
       </c>
       <c r="AI47" s="10">
-        <f t="shared" si="87"/>
+        <f t="shared" si="98"/>
         <v>0.5</v>
       </c>
       <c r="AJ47" s="10">
-        <f t="shared" si="87"/>
+        <f t="shared" si="98"/>
         <v>0.5</v>
       </c>
       <c r="AK47" s="10">
-        <f t="shared" si="87"/>
+        <f t="shared" si="98"/>
         <v>0.5</v>
       </c>
       <c r="AL47" s="10">
-        <f t="shared" si="87"/>
+        <f t="shared" si="98"/>
         <v>0.5</v>
       </c>
     </row>
@@ -6367,19 +6567,19 @@
         <v>68</v>
       </c>
       <c r="G48" s="11">
-        <f t="shared" ref="G48:H48" si="88">G16/G8</f>
+        <f t="shared" ref="G48:H48" si="99">G16/G8</f>
         <v>-0.33016175071360598</v>
       </c>
       <c r="H48" s="11">
-        <f t="shared" si="88"/>
+        <f t="shared" si="99"/>
         <v>-0.30015372790161426</v>
       </c>
       <c r="I48" s="11">
-        <f t="shared" ref="I48:J48" si="89">I16/I8</f>
+        <f t="shared" ref="I48:J48" si="100">I16/I8</f>
         <v>-0.69366197183098577</v>
       </c>
       <c r="J48" s="11">
-        <f t="shared" si="89"/>
+        <f t="shared" si="100"/>
         <v>-1.0018018018018027</v>
       </c>
       <c r="K48" s="11">
@@ -6391,35 +6591,47 @@
         <v>-0.91492329149232887</v>
       </c>
       <c r="M48" s="11">
-        <f t="shared" ref="M48:N48" si="90">M16/M8</f>
+        <f t="shared" ref="M48:N48" si="101">M16/M8</f>
         <v>-0.57570523891767422</v>
       </c>
       <c r="N48" s="11">
-        <f t="shared" si="90"/>
+        <f t="shared" si="101"/>
         <v>-1.2257053291536055</v>
       </c>
-      <c r="O48" s="11"/>
-      <c r="P48" s="11"/>
-      <c r="Q48" s="11"/>
-      <c r="R48" s="11"/>
+      <c r="O48" s="11">
+        <f t="shared" ref="O48:R48" si="102">O16/O8</f>
+        <v>0</v>
+      </c>
+      <c r="P48" s="11">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="Q48" s="11">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
+      <c r="R48" s="11">
+        <f t="shared" si="102"/>
+        <v>0</v>
+      </c>
       <c r="T48" s="11">
-        <f t="shared" ref="T48:X48" si="91">T16/T8</f>
+        <f t="shared" ref="T48:X48" si="103">T16/T8</f>
         <v>-0.27944111776447089</v>
       </c>
       <c r="U48" s="11">
-        <f t="shared" si="91"/>
+        <f t="shared" si="103"/>
         <v>1.5455065827132323E-2</v>
       </c>
       <c r="V48" s="11">
-        <f t="shared" si="91"/>
+        <f t="shared" si="103"/>
         <v>0.12114633087277456</v>
       </c>
       <c r="W48" s="11">
-        <f t="shared" si="91"/>
+        <f t="shared" si="103"/>
         <v>5.0310825294748129</v>
       </c>
       <c r="X48" s="11">
-        <f t="shared" si="91"/>
+        <f t="shared" si="103"/>
         <v>-0.34096337579617847</v>
       </c>
       <c r="Y48" s="11">
@@ -6435,47 +6647,47 @@
         <v>-0.99363867684478369</v>
       </c>
       <c r="AB48" s="11">
-        <f t="shared" ref="AB48:AL48" si="92">AB16/AB8</f>
+        <f t="shared" ref="AB48:AL48" si="104">AB16/AB8</f>
         <v>-0.33434103541528509</v>
       </c>
       <c r="AC48" s="11">
-        <f t="shared" si="92"/>
+        <f t="shared" si="104"/>
         <v>-4.7620889048349949E-2</v>
       </c>
       <c r="AD48" s="11">
-        <f t="shared" si="92"/>
+        <f t="shared" si="104"/>
         <v>0.11828384056106668</v>
       </c>
       <c r="AE48" s="11">
-        <f t="shared" si="92"/>
+        <f t="shared" si="104"/>
         <v>0.2236312527304043</v>
       </c>
       <c r="AF48" s="11">
-        <f t="shared" si="92"/>
+        <f t="shared" si="104"/>
         <v>0.25272564121706603</v>
       </c>
       <c r="AG48" s="11">
-        <f t="shared" si="92"/>
+        <f t="shared" si="104"/>
         <v>0.27067677353145358</v>
       </c>
       <c r="AH48" s="11">
-        <f t="shared" si="92"/>
+        <f t="shared" si="104"/>
         <v>0.28479860861477468</v>
       </c>
       <c r="AI48" s="11">
-        <f t="shared" si="92"/>
+        <f t="shared" si="104"/>
         <v>0.29446215817717647</v>
       </c>
       <c r="AJ48" s="11">
-        <f t="shared" si="92"/>
+        <f t="shared" si="104"/>
         <v>0.3015914453561036</v>
       </c>
       <c r="AK48" s="11">
-        <f t="shared" si="92"/>
+        <f t="shared" si="104"/>
         <v>0.30766694869863725</v>
       </c>
       <c r="AL48" s="11">
-        <f t="shared" si="92"/>
+        <f t="shared" si="104"/>
         <v>0.3133499483292444</v>
       </c>
     </row>
@@ -6496,88 +6708,100 @@
         <v>-0.35494880546075092</v>
       </c>
       <c r="M49" s="10">
-        <f t="shared" ref="M49:N49" si="93">M17/I17-1</f>
+        <f t="shared" ref="M49:N49" si="105">M17/I17-1</f>
         <v>-0.28880866425992779</v>
       </c>
       <c r="N49" s="10">
-        <f t="shared" si="93"/>
+        <f t="shared" si="105"/>
         <v>-0.5596026490066226</v>
       </c>
-      <c r="O49" s="10"/>
-      <c r="P49" s="10"/>
-      <c r="Q49" s="10"/>
-      <c r="R49" s="10"/>
+      <c r="O49" s="10">
+        <f t="shared" ref="O49:O50" si="106">O17/K17-1</f>
+        <v>-1</v>
+      </c>
+      <c r="P49" s="10">
+        <f t="shared" ref="P49:P50" si="107">P17/L17-1</f>
+        <v>-1</v>
+      </c>
+      <c r="Q49" s="10">
+        <f t="shared" ref="Q49:Q50" si="108">Q17/M17-1</f>
+        <v>-1</v>
+      </c>
+      <c r="R49" s="10">
+        <f t="shared" ref="R49:R50" si="109">R17/N17-1</f>
+        <v>-1</v>
+      </c>
       <c r="T49" s="10"/>
       <c r="U49" s="10">
-        <f t="shared" ref="U49:U50" si="94">U17/T17-1</f>
+        <f t="shared" ref="U49:U50" si="110">U17/T17-1</f>
         <v>0.1811846689895471</v>
       </c>
       <c r="V49" s="10">
-        <f t="shared" ref="V49:V50" si="95">V17/U17-1</f>
+        <f t="shared" ref="V49:V50" si="111">V17/U17-1</f>
         <v>-5.8997050147491237E-3</v>
       </c>
       <c r="W49" s="10">
-        <f t="shared" ref="W49:W50" si="96">W17/V17-1</f>
+        <f t="shared" ref="W49:W50" si="112">W17/V17-1</f>
         <v>-0.17507418397626118</v>
       </c>
       <c r="X49" s="10">
-        <f t="shared" ref="X49:X50" si="97">X17/W17-1</f>
+        <f t="shared" ref="X49:X50" si="113">X17/W17-1</f>
         <v>1.3309352517985609</v>
       </c>
       <c r="Y49" s="10">
-        <f t="shared" ref="Y49:AA50" si="98">Y17/X17-1</f>
+        <f t="shared" ref="Y49:AA50" si="114">Y17/X17-1</f>
         <v>0.53703703703703698</v>
       </c>
       <c r="Z49" s="10">
-        <f t="shared" si="98"/>
+        <f t="shared" si="114"/>
         <v>0.14156626506024095</v>
       </c>
       <c r="AA49" s="10">
-        <f t="shared" si="98"/>
+        <f t="shared" si="114"/>
         <v>-0.32102022867194369</v>
       </c>
       <c r="AB49" s="10">
-        <f t="shared" ref="AB49:AB50" si="99">AB17/AA17-1</f>
+        <f t="shared" ref="AB49:AB50" si="115">AB17/AA17-1</f>
         <v>0.10000000000000009</v>
       </c>
       <c r="AC49" s="10">
-        <f t="shared" ref="AC49:AC50" si="100">AC17/AB17-1</f>
+        <f t="shared" ref="AC49:AC50" si="116">AC17/AB17-1</f>
         <v>8.0000000000000071E-2</v>
       </c>
       <c r="AD49" s="10">
-        <f t="shared" ref="AD49:AD50" si="101">AD17/AC17-1</f>
+        <f t="shared" ref="AD49:AD50" si="117">AD17/AC17-1</f>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AE49" s="10">
-        <f t="shared" ref="AE49:AE50" si="102">AE17/AD17-1</f>
+        <f t="shared" ref="AE49:AE50" si="118">AE17/AD17-1</f>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="AF49" s="10">
-        <f t="shared" ref="AF49:AF50" si="103">AF17/AE17-1</f>
+        <f t="shared" ref="AF49:AF50" si="119">AF17/AE17-1</f>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="AG49" s="10">
-        <f t="shared" ref="AG49:AG50" si="104">AG17/AF17-1</f>
+        <f t="shared" ref="AG49:AG50" si="120">AG17/AF17-1</f>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="AH49" s="10">
-        <f t="shared" ref="AH49:AH50" si="105">AH17/AG17-1</f>
+        <f t="shared" ref="AH49:AH50" si="121">AH17/AG17-1</f>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AI49" s="10">
-        <f t="shared" ref="AI49:AI50" si="106">AI17/AH17-1</f>
+        <f t="shared" ref="AI49:AI50" si="122">AI17/AH17-1</f>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AJ49" s="10">
-        <f t="shared" ref="AJ49:AJ50" si="107">AJ17/AI17-1</f>
+        <f t="shared" ref="AJ49:AJ50" si="123">AJ17/AI17-1</f>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AK49" s="10">
-        <f t="shared" ref="AK49:AK50" si="108">AK17/AJ17-1</f>
+        <f t="shared" ref="AK49:AK50" si="124">AK17/AJ17-1</f>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="AL49" s="10">
-        <f t="shared" ref="AL49:AL50" si="109">AL17/AK17-1</f>
+        <f t="shared" ref="AL49:AL50" si="125">AL17/AK17-1</f>
         <v>2.0000000000000018E-2</v>
       </c>
     </row>
@@ -6598,88 +6822,100 @@
         <v>-0.15909090909090917</v>
       </c>
       <c r="M50" s="10">
-        <f t="shared" ref="M50:N50" si="110">M18/I18-1</f>
+        <f t="shared" ref="M50:N50" si="126">M18/I18-1</f>
         <v>-0.1317535545023697</v>
       </c>
       <c r="N50" s="10">
-        <f t="shared" si="110"/>
+        <f t="shared" si="126"/>
         <v>8.5867620751341578E-2</v>
       </c>
-      <c r="O50" s="10"/>
-      <c r="P50" s="10"/>
-      <c r="Q50" s="10"/>
-      <c r="R50" s="10"/>
+      <c r="O50" s="10">
+        <f t="shared" si="106"/>
+        <v>-1</v>
+      </c>
+      <c r="P50" s="10">
+        <f t="shared" si="107"/>
+        <v>-1</v>
+      </c>
+      <c r="Q50" s="10">
+        <f t="shared" si="108"/>
+        <v>-1</v>
+      </c>
+      <c r="R50" s="10">
+        <f t="shared" si="109"/>
+        <v>-1</v>
+      </c>
       <c r="T50" s="10"/>
       <c r="U50" s="10">
-        <f t="shared" si="94"/>
+        <f t="shared" si="110"/>
         <v>-0.15111111111111108</v>
       </c>
       <c r="V50" s="10">
-        <f t="shared" si="95"/>
+        <f t="shared" si="111"/>
         <v>0.15968586387434547</v>
       </c>
       <c r="W50" s="10">
-        <f t="shared" si="96"/>
+        <f t="shared" si="112"/>
         <v>0.79006772009029347</v>
       </c>
       <c r="X50" s="10">
-        <f t="shared" si="97"/>
+        <f t="shared" si="113"/>
         <v>1.2686002522068098</v>
       </c>
       <c r="Y50" s="10">
-        <f t="shared" si="98"/>
+        <f t="shared" si="114"/>
         <v>1.0227904391328515</v>
       </c>
       <c r="Z50" s="10">
-        <f t="shared" si="98"/>
+        <f t="shared" si="114"/>
         <v>0.1610332508931025</v>
       </c>
       <c r="AA50" s="10">
-        <f t="shared" si="98"/>
+        <f t="shared" si="114"/>
         <v>-0.10982248520710058</v>
       </c>
       <c r="AB50" s="10">
-        <f t="shared" si="99"/>
+        <f t="shared" si="115"/>
         <v>-6.9999999999999951E-2</v>
       </c>
       <c r="AC50" s="10">
-        <f t="shared" si="100"/>
+        <f t="shared" si="116"/>
         <v>-1.9999999999999907E-2</v>
       </c>
       <c r="AD50" s="10">
-        <f t="shared" si="101"/>
+        <f t="shared" si="117"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AE50" s="10">
-        <f t="shared" si="102"/>
+        <f t="shared" si="118"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AF50" s="10">
-        <f t="shared" si="103"/>
+        <f t="shared" si="119"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AG50" s="10">
-        <f t="shared" si="104"/>
+        <f t="shared" si="120"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AH50" s="10">
-        <f t="shared" si="105"/>
+        <f t="shared" si="121"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AI50" s="10">
-        <f t="shared" si="106"/>
+        <f t="shared" si="122"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AJ50" s="10">
-        <f t="shared" si="107"/>
+        <f t="shared" si="123"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AK50" s="10">
-        <f t="shared" si="108"/>
+        <f t="shared" si="124"/>
         <v>1.0000000000000009E-2</v>
       </c>
       <c r="AL50" s="10">
-        <f t="shared" si="109"/>
+        <f t="shared" si="125"/>
         <v>1.0000000000000009E-2</v>
       </c>
     </row>
@@ -6688,19 +6924,19 @@
         <v>69</v>
       </c>
       <c r="G51" s="10">
-        <f t="shared" ref="G51:H51" si="111">G23/G8</f>
+        <f t="shared" ref="G51:H51" si="127">G23/G8</f>
         <v>-0.99809705042816366</v>
       </c>
       <c r="H51" s="10">
-        <f t="shared" si="111"/>
+        <f t="shared" si="127"/>
         <v>-0.8989239046887012</v>
       </c>
       <c r="I51" s="10">
-        <f t="shared" ref="I51:J51" si="112">I23/I8</f>
+        <f t="shared" ref="I51:J51" si="128">I23/I8</f>
         <v>-1.378269617706237</v>
       </c>
       <c r="J51" s="10">
-        <f t="shared" si="112"/>
+        <f t="shared" si="128"/>
         <v>-2.8189189189189205</v>
       </c>
       <c r="K51" s="10">
@@ -6712,35 +6948,47 @@
         <v>-1.7050209205020916</v>
       </c>
       <c r="M51" s="10">
-        <f t="shared" ref="M51:N51" si="113">M23/M8</f>
+        <f t="shared" ref="M51:N51" si="129">M23/M8</f>
         <v>-1.2440990213010938</v>
       </c>
       <c r="N51" s="10">
-        <f t="shared" si="113"/>
+        <f t="shared" si="129"/>
         <v>-6.7910135841170334</v>
       </c>
-      <c r="O51" s="10"/>
-      <c r="P51" s="10"/>
-      <c r="Q51" s="10"/>
-      <c r="R51" s="10"/>
+      <c r="O51" s="10">
+        <f t="shared" ref="O51:R51" si="130">O23/O8</f>
+        <v>0</v>
+      </c>
+      <c r="P51" s="10">
+        <f t="shared" si="130"/>
+        <v>0</v>
+      </c>
+      <c r="Q51" s="10">
+        <f t="shared" si="130"/>
+        <v>0</v>
+      </c>
+      <c r="R51" s="10">
+        <f t="shared" si="130"/>
+        <v>0</v>
+      </c>
       <c r="T51" s="10">
-        <f t="shared" ref="T51:X51" si="114">T23/T8</f>
+        <f t="shared" ref="T51:X51" si="131">T23/T8</f>
         <v>-1.0149700598802394</v>
       </c>
       <c r="U51" s="10">
-        <f t="shared" si="114"/>
+        <f t="shared" si="131"/>
         <v>-0.39725243274184296</v>
       </c>
       <c r="V51" s="10">
-        <f t="shared" si="114"/>
+        <f t="shared" si="131"/>
         <v>-0.21754233608336962</v>
       </c>
       <c r="W51" s="10">
-        <f t="shared" si="114"/>
+        <f t="shared" si="131"/>
         <v>6.2604501607717049</v>
       </c>
       <c r="X51" s="10">
-        <f t="shared" si="114"/>
+        <f t="shared" si="131"/>
         <v>-0.87062101910828038</v>
       </c>
       <c r="Y51" s="10">
@@ -6756,47 +7004,47 @@
         <v>-3.2121501272264634</v>
       </c>
       <c r="AB51" s="10">
-        <f t="shared" ref="AB51:AL51" si="115">AB23/AB8</f>
+        <f t="shared" ref="AB51:AL51" si="132">AB23/AB8</f>
         <v>-0.81970506988595404</v>
       </c>
       <c r="AC51" s="10">
-        <f t="shared" si="115"/>
+        <f t="shared" si="132"/>
         <v>-0.40771045298085817</v>
       </c>
       <c r="AD51" s="10">
-        <f t="shared" si="115"/>
+        <f t="shared" si="132"/>
         <v>-0.17261027255782191</v>
       </c>
       <c r="AE51" s="10">
-        <f t="shared" si="115"/>
+        <f t="shared" si="132"/>
         <v>-2.7466304172268214E-2</v>
       </c>
       <c r="AF51" s="10">
-        <f t="shared" si="115"/>
+        <f t="shared" si="132"/>
         <v>2.0106909021593379E-2</v>
       </c>
       <c r="AG51" s="10">
-        <f t="shared" si="115"/>
+        <f t="shared" si="132"/>
         <v>5.5016661461530378E-2</v>
       </c>
       <c r="AH51" s="10">
-        <f t="shared" si="115"/>
+        <f t="shared" si="132"/>
         <v>8.3977704965150474E-2</v>
       </c>
       <c r="AI51" s="10">
-        <f t="shared" si="115"/>
+        <f t="shared" si="132"/>
         <v>0.10734573895579164</v>
       </c>
       <c r="AJ51" s="10">
-        <f t="shared" si="115"/>
+        <f t="shared" si="132"/>
         <v>0.12736973274290567</v>
       </c>
       <c r="AK51" s="10">
-        <f t="shared" si="115"/>
+        <f t="shared" si="132"/>
         <v>0.14556237824448942</v>
       </c>
       <c r="AL51" s="10">
-        <f t="shared" si="115"/>
+        <f t="shared" si="132"/>
         <v>0.1626178607713033</v>
       </c>
     </row>
@@ -6805,19 +7053,19 @@
         <v>51</v>
       </c>
       <c r="G52" s="10">
-        <f t="shared" ref="G52:H52" si="116">G32/G31</f>
+        <f t="shared" ref="G52:H52" si="133">G32/G31</f>
         <v>6.2530062530062542E-3</v>
       </c>
       <c r="H52" s="10">
-        <f t="shared" si="116"/>
+        <f t="shared" si="133"/>
         <v>3.7926675094816682E-3</v>
       </c>
       <c r="I52" s="10">
-        <f t="shared" ref="I52:J52" si="117">I32/I31</f>
+        <f t="shared" ref="I52:J52" si="134">I32/I31</f>
         <v>1.6313779937521696E-2</v>
       </c>
       <c r="J52" s="10">
-        <f t="shared" si="117"/>
+        <f t="shared" si="134"/>
         <v>7.7772592938248574E-4</v>
       </c>
       <c r="K52" s="10">
@@ -6829,35 +7077,47 @@
         <v>1.5238095238095243E-3</v>
       </c>
       <c r="M52" s="10">
-        <f t="shared" ref="M52:N52" si="118">M32/M31</f>
+        <f t="shared" ref="M52:N52" si="135">M32/M31</f>
         <v>-4.7393364928909954E-4</v>
       </c>
       <c r="N52" s="10">
-        <f t="shared" si="118"/>
+        <f t="shared" si="135"/>
         <v>1.9423278051695803E-3</v>
       </c>
-      <c r="O52" s="10"/>
-      <c r="P52" s="10"/>
-      <c r="Q52" s="10"/>
-      <c r="R52" s="10"/>
+      <c r="O52" s="10" t="e">
+        <f t="shared" ref="O52:R52" si="136">O32/O31</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P52" s="10" t="e">
+        <f t="shared" si="136"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q52" s="10" t="e">
+        <f t="shared" si="136"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R52" s="10" t="e">
+        <f t="shared" si="136"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="T52" s="10">
-        <f t="shared" ref="T52:X52" si="119">T32/T31</f>
+        <f t="shared" ref="T52:X52" si="137">T32/T31</f>
         <v>0</v>
       </c>
       <c r="U52" s="10">
-        <f t="shared" si="119"/>
+        <f t="shared" si="137"/>
         <v>0.10550458715596332</v>
       </c>
       <c r="V52" s="10">
-        <f t="shared" si="119"/>
+        <f t="shared" si="137"/>
         <v>0</v>
       </c>
       <c r="W52" s="10">
-        <f t="shared" si="119"/>
+        <f t="shared" si="137"/>
         <v>4.9138481174218249E-2</v>
       </c>
       <c r="X52" s="10">
-        <f t="shared" si="119"/>
+        <f t="shared" si="137"/>
         <v>3.4012177199244167E-2</v>
       </c>
       <c r="Y52" s="10">
@@ -6873,47 +7133,47 @@
         <v>1.2810780034162082E-3</v>
       </c>
       <c r="AB52" s="10">
-        <f t="shared" ref="AB52:AL52" si="120">AB32/AB31</f>
+        <f t="shared" ref="AB52:AL52" si="138">AB32/AB31</f>
         <v>0.1</v>
       </c>
       <c r="AC52" s="10">
-        <f t="shared" si="120"/>
+        <f t="shared" si="138"/>
         <v>0.1</v>
       </c>
       <c r="AD52" s="10">
-        <f t="shared" si="120"/>
+        <f t="shared" si="138"/>
         <v>0.1</v>
       </c>
       <c r="AE52" s="10">
-        <f t="shared" si="120"/>
+        <f t="shared" si="138"/>
         <v>0.1</v>
       </c>
       <c r="AF52" s="10">
-        <f t="shared" si="120"/>
+        <f t="shared" si="138"/>
         <v>0.1</v>
       </c>
       <c r="AG52" s="10">
-        <f t="shared" si="120"/>
+        <f t="shared" si="138"/>
         <v>9.9999999999999992E-2</v>
       </c>
       <c r="AH52" s="10">
-        <f t="shared" si="120"/>
+        <f t="shared" si="138"/>
         <v>0.1</v>
       </c>
       <c r="AI52" s="10">
-        <f t="shared" si="120"/>
+        <f t="shared" si="138"/>
         <v>0.1</v>
       </c>
       <c r="AJ52" s="10">
-        <f t="shared" si="120"/>
+        <f t="shared" si="138"/>
         <v>0.1</v>
       </c>
       <c r="AK52" s="10">
-        <f t="shared" si="120"/>
+        <f t="shared" si="138"/>
         <v>0.1</v>
       </c>
       <c r="AL52" s="10">
-        <f t="shared" si="120"/>
+        <f t="shared" si="138"/>
         <v>0.1</v>
       </c>
     </row>
@@ -6922,19 +7182,19 @@
         <v>70</v>
       </c>
       <c r="G53" s="10">
-        <f t="shared" ref="G53:H53" si="121">G33/G8</f>
+        <f t="shared" ref="G53:H53" si="139">G33/G8</f>
         <v>-0.9828734538534728</v>
       </c>
       <c r="H53" s="10">
-        <f t="shared" si="121"/>
+        <f t="shared" si="139"/>
         <v>-0.90853189853958516</v>
       </c>
       <c r="I53" s="10">
-        <f t="shared" ref="I53:J53" si="122">I33/I8</f>
+        <f t="shared" ref="I53:J53" si="140">I33/I8</f>
         <v>-1.4255533199195169</v>
       </c>
       <c r="J53" s="10">
-        <f t="shared" si="122"/>
+        <f t="shared" si="140"/>
         <v>-2.8936936936936952</v>
       </c>
       <c r="K53" s="10">
@@ -6946,35 +7206,47 @@
         <v>-1.827754532775453</v>
       </c>
       <c r="M53" s="10">
-        <f t="shared" ref="M53:N53" si="123">M33/M8</f>
+        <f t="shared" ref="M53:N53" si="141">M33/M8</f>
         <v>-1.2153137593552101</v>
       </c>
       <c r="N53" s="10">
-        <f t="shared" si="123"/>
+        <f t="shared" si="141"/>
         <v>-6.9801462904911187</v>
       </c>
-      <c r="O53" s="10"/>
-      <c r="P53" s="10"/>
-      <c r="Q53" s="10"/>
-      <c r="R53" s="10"/>
+      <c r="O53" s="10">
+        <f t="shared" ref="O53:R53" si="142">O33/O8</f>
+        <v>0</v>
+      </c>
+      <c r="P53" s="10">
+        <f t="shared" si="142"/>
+        <v>0</v>
+      </c>
+      <c r="Q53" s="10">
+        <f t="shared" si="142"/>
+        <v>0</v>
+      </c>
+      <c r="R53" s="10">
+        <f t="shared" si="142"/>
+        <v>0</v>
+      </c>
       <c r="T53" s="10">
-        <f t="shared" ref="T53:X53" si="124">T33/T8</f>
+        <f t="shared" ref="T53:X53" si="143">T33/T8</f>
         <v>-1.2674650698602792</v>
       </c>
       <c r="U53" s="10">
-        <f t="shared" si="124"/>
+        <f t="shared" si="143"/>
         <v>-0.44647967945048633</v>
       </c>
       <c r="V53" s="10">
-        <f t="shared" si="124"/>
+        <f t="shared" si="143"/>
         <v>-0.37125488493269665</v>
       </c>
       <c r="W53" s="10">
-        <f t="shared" si="124"/>
+        <f t="shared" si="143"/>
         <v>6.3879957127545568</v>
       </c>
       <c r="X53" s="10">
-        <f t="shared" si="124"/>
+        <f t="shared" si="143"/>
         <v>-0.91580414012738875</v>
       </c>
       <c r="Y53" s="10">
@@ -6990,47 +7262,47 @@
         <v>-3.3474872773536899</v>
       </c>
       <c r="AB53" s="10">
-        <f t="shared" ref="AB53:AL53" si="125">AB33/AB8</f>
+        <f t="shared" ref="AB53:AL53" si="144">AB33/AB8</f>
         <v>-0.80640010853035193</v>
       </c>
       <c r="AC53" s="10">
-        <f t="shared" si="125"/>
+        <f t="shared" si="144"/>
         <v>-0.41829824351276096</v>
       </c>
       <c r="AD53" s="10">
-        <f t="shared" si="125"/>
+        <f t="shared" si="144"/>
         <v>-0.1963963622182105</v>
       </c>
       <c r="AE53" s="10">
-        <f t="shared" si="125"/>
+        <f t="shared" si="144"/>
         <v>-5.9760023459963334E-2</v>
       </c>
       <c r="AF53" s="10">
-        <f t="shared" si="125"/>
+        <f t="shared" si="144"/>
         <v>-1.4065326814835846E-2</v>
       </c>
       <c r="AG53" s="10">
-        <f t="shared" si="125"/>
+        <f t="shared" si="144"/>
         <v>1.9915333231892624E-2</v>
       </c>
       <c r="AH53" s="10">
-        <f t="shared" si="125"/>
+        <f t="shared" si="144"/>
         <v>4.8160392282936629E-2</v>
       </c>
       <c r="AI53" s="10">
-        <f t="shared" si="125"/>
+        <f t="shared" si="144"/>
         <v>7.119971724268627E-2</v>
       </c>
       <c r="AJ53" s="10">
-        <f t="shared" si="125"/>
+        <f t="shared" si="144"/>
         <v>9.1103087924424009E-2</v>
       </c>
       <c r="AK53" s="10">
-        <f t="shared" si="125"/>
+        <f t="shared" si="144"/>
         <v>0.10923743229095903</v>
       </c>
       <c r="AL53" s="10">
-        <f t="shared" si="125"/>
+        <f t="shared" si="144"/>
         <v>0.12623308691493726</v>
       </c>
     </row>
@@ -7712,27 +7984,27 @@
         <v>52</v>
       </c>
       <c r="G94" s="9">
-        <f t="shared" ref="G94" si="126">G33</f>
+        <f t="shared" ref="G94" si="145">G33</f>
         <v>-206.59999999999997</v>
       </c>
       <c r="H94" s="9">
-        <f t="shared" ref="H94:L94" si="127">H33</f>
+        <f t="shared" ref="H94:L94" si="146">H33</f>
         <v>-236.40000000000003</v>
       </c>
       <c r="I94" s="9">
-        <f t="shared" si="127"/>
+        <f t="shared" si="146"/>
         <v>-283.39999999999998</v>
       </c>
       <c r="J94" s="9">
-        <f t="shared" si="127"/>
+        <f t="shared" si="146"/>
         <v>-642.4000000000002</v>
       </c>
       <c r="K94" s="9">
-        <f t="shared" si="127"/>
+        <f t="shared" si="146"/>
         <v>-295.7</v>
       </c>
       <c r="L94" s="9">
-        <f t="shared" si="127"/>
+        <f t="shared" si="146"/>
         <v>-262.09999999999997</v>
       </c>
       <c r="M94" s="9">
@@ -7748,27 +8020,27 @@
       <c r="Q94" s="9"/>
       <c r="R94" s="9"/>
       <c r="V94" s="9">
-        <f t="shared" ref="V94:AA94" si="128">V33</f>
+        <f t="shared" ref="V94:AA94" si="147">V33</f>
         <v>-85.500000000000028</v>
       </c>
       <c r="W94" s="9">
-        <f t="shared" si="128"/>
+        <f t="shared" si="147"/>
         <v>-596.00000000000011</v>
       </c>
       <c r="X94" s="9">
-        <f t="shared" si="128"/>
+        <f t="shared" si="147"/>
         <v>-460.10000000000008</v>
       </c>
       <c r="Y94" s="9">
-        <f t="shared" si="128"/>
+        <f t="shared" si="147"/>
         <v>-724.1</v>
       </c>
       <c r="Z94" s="9">
-        <f t="shared" si="128"/>
+        <f t="shared" si="147"/>
         <v>-1368.8</v>
       </c>
       <c r="AA94" s="9">
-        <f t="shared" si="128"/>
+        <f t="shared" si="147"/>
         <v>-2104.9</v>
       </c>
     </row>
@@ -7856,7 +8128,7 @@
         <v>4.8</v>
       </c>
       <c r="N96" s="5">
-        <f t="shared" ref="N96:N125" si="129">AA96-M96-L96-K96</f>
+        <f t="shared" ref="N96:N125" si="148">AA96-M96-L96-K96</f>
         <v>9.1999999999999993</v>
       </c>
       <c r="V96" s="5">
@@ -7909,7 +8181,7 @@
         <v>14.399999999999999</v>
       </c>
       <c r="N97" s="5">
-        <f t="shared" si="129"/>
+        <f t="shared" si="148"/>
         <v>104.2</v>
       </c>
       <c r="V97" s="5"/>
@@ -7954,7 +8226,7 @@
         <v>24.099999999999998</v>
       </c>
       <c r="N98" s="5">
-        <f t="shared" si="129"/>
+        <f t="shared" si="148"/>
         <v>18.100000000000009</v>
       </c>
       <c r="V98" s="5">
@@ -8007,7 +8279,7 @@
         <v>0</v>
       </c>
       <c r="N99" s="5">
-        <f t="shared" si="129"/>
+        <f t="shared" si="148"/>
         <v>1.6999999999999993</v>
       </c>
       <c r="V99" s="5">
@@ -8037,30 +8309,30 @@
         <v>0.2</v>
       </c>
       <c r="H100" s="5">
-        <f t="shared" ref="H100:H120" si="130">H139-G100</f>
+        <f t="shared" ref="H100:H120" si="149">H139-G100</f>
         <v>0.7</v>
       </c>
       <c r="I100" s="5">
-        <f t="shared" ref="I100:I120" si="131">I139-H100-G100</f>
+        <f t="shared" ref="I100:I120" si="150">I139-H100-G100</f>
         <v>0</v>
       </c>
       <c r="J100" s="5">
-        <f t="shared" ref="J100:J120" si="132">J139-I100-H100-G100</f>
+        <f t="shared" ref="J100:J120" si="151">J139-I100-H100-G100</f>
         <v>7.5</v>
       </c>
       <c r="K100" s="5">
         <v>-1.4</v>
       </c>
       <c r="L100" s="5">
-        <f t="shared" ref="L100:L120" si="133">L139-K100</f>
+        <f t="shared" ref="L100:L120" si="152">L139-K100</f>
         <v>9.9999999999999867E-2</v>
       </c>
       <c r="M100" s="5">
-        <f t="shared" ref="M100:M120" si="134">M139-L100-K100</f>
+        <f t="shared" ref="M100:M120" si="153">M139-L100-K100</f>
         <v>-0.19999999999999996</v>
       </c>
       <c r="N100" s="5">
-        <f t="shared" si="129"/>
+        <f t="shared" si="148"/>
         <v>30.399999999999995</v>
       </c>
       <c r="V100" s="5">
@@ -8090,30 +8362,30 @@
         <v>0.6</v>
       </c>
       <c r="H101" s="5">
-        <f t="shared" si="130"/>
+        <f t="shared" si="149"/>
         <v>0.6</v>
       </c>
       <c r="I101" s="5">
-        <f t="shared" si="131"/>
+        <f t="shared" si="150"/>
         <v>0.50000000000000011</v>
       </c>
       <c r="J101" s="5">
-        <f t="shared" si="132"/>
+        <f t="shared" si="151"/>
         <v>0.50000000000000011</v>
       </c>
       <c r="K101" s="5">
         <v>0.3</v>
       </c>
       <c r="L101" s="5">
-        <f t="shared" si="133"/>
+        <f t="shared" si="152"/>
         <v>-1</v>
       </c>
       <c r="M101" s="5">
-        <f t="shared" si="134"/>
+        <f t="shared" si="153"/>
         <v>-1</v>
       </c>
       <c r="N101" s="5">
-        <f t="shared" si="129"/>
+        <f t="shared" si="148"/>
         <v>-1.0999999999999999</v>
       </c>
       <c r="V101" s="5">
@@ -8143,30 +8415,30 @@
         <v>14.2</v>
       </c>
       <c r="H102" s="5">
-        <f t="shared" si="130"/>
+        <f t="shared" si="149"/>
         <v>0.10000000000000142</v>
       </c>
       <c r="I102" s="5">
-        <f t="shared" si="131"/>
+        <f t="shared" si="150"/>
         <v>-1.6000000000000014</v>
       </c>
       <c r="J102" s="5">
-        <f t="shared" si="132"/>
+        <f t="shared" si="151"/>
         <v>-1.5</v>
       </c>
       <c r="K102" s="5">
         <v>4.5</v>
       </c>
       <c r="L102" s="5">
-        <f t="shared" si="133"/>
+        <f t="shared" si="152"/>
         <v>5.8000000000000007</v>
       </c>
       <c r="M102" s="5">
-        <f t="shared" si="134"/>
+        <f t="shared" si="153"/>
         <v>6</v>
       </c>
       <c r="N102" s="5">
-        <f t="shared" si="129"/>
+        <f t="shared" si="148"/>
         <v>22.7</v>
       </c>
       <c r="V102" s="5"/>
@@ -8188,30 +8460,30 @@
         <v>-0.9</v>
       </c>
       <c r="H103" s="5">
-        <f t="shared" si="130"/>
+        <f t="shared" si="149"/>
         <v>2.4</v>
       </c>
       <c r="I103" s="5">
-        <f t="shared" si="131"/>
+        <f t="shared" si="150"/>
         <v>-2.1</v>
       </c>
       <c r="J103" s="5">
-        <f t="shared" si="132"/>
+        <f t="shared" si="151"/>
         <v>-7.9</v>
       </c>
       <c r="K103" s="5">
         <v>0.2</v>
       </c>
       <c r="L103" s="5">
-        <f t="shared" si="133"/>
+        <f t="shared" si="152"/>
         <v>-0.4</v>
       </c>
       <c r="M103" s="5">
-        <f t="shared" si="134"/>
+        <f t="shared" si="153"/>
         <v>0.10000000000000003</v>
       </c>
       <c r="N103" s="5">
-        <f t="shared" si="129"/>
+        <f t="shared" si="148"/>
         <v>-3.1000000000000005</v>
       </c>
       <c r="V103" s="5"/>
@@ -8239,30 +8511,30 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="H104" s="5">
-        <f t="shared" si="130"/>
+        <f t="shared" si="149"/>
         <v>10</v>
       </c>
       <c r="I104" s="5">
-        <f t="shared" si="131"/>
+        <f t="shared" si="150"/>
         <v>0.5999999999999992</v>
       </c>
       <c r="J104" s="5">
-        <f t="shared" si="132"/>
+        <f t="shared" si="151"/>
         <v>257.79999999999995</v>
       </c>
       <c r="K104" s="5">
         <v>0.3</v>
       </c>
       <c r="L104" s="5">
-        <f t="shared" si="133"/>
+        <f t="shared" si="152"/>
         <v>3.9000000000000004</v>
       </c>
       <c r="M104" s="5">
-        <f t="shared" si="134"/>
+        <f t="shared" si="153"/>
         <v>4.2</v>
       </c>
       <c r="N104" s="5">
-        <f t="shared" si="129"/>
+        <f t="shared" si="148"/>
         <v>940.9</v>
       </c>
       <c r="V104" s="5"/>
@@ -8291,30 +8563,30 @@
         <v>0.2</v>
       </c>
       <c r="H105" s="5">
-        <f t="shared" si="130"/>
+        <f t="shared" si="149"/>
         <v>0.7</v>
       </c>
       <c r="I105" s="5">
-        <f t="shared" si="131"/>
+        <f t="shared" si="150"/>
         <v>34.999999999999993</v>
       </c>
       <c r="J105" s="5">
-        <f t="shared" si="132"/>
+        <f t="shared" si="151"/>
         <v>20.70000000000001</v>
       </c>
       <c r="K105" s="5">
         <v>3.8</v>
       </c>
       <c r="L105" s="5">
-        <f t="shared" si="133"/>
+        <f t="shared" si="152"/>
         <v>3.5</v>
       </c>
       <c r="M105" s="5">
-        <f t="shared" si="134"/>
+        <f t="shared" si="153"/>
         <v>-7.8999999999999995</v>
       </c>
       <c r="N105" s="5">
-        <f t="shared" si="129"/>
+        <f t="shared" si="148"/>
         <v>-2.4000000000000004</v>
       </c>
       <c r="V105" s="5"/>
@@ -8340,28 +8612,28 @@
       </c>
       <c r="G106" s="5"/>
       <c r="H106" s="5">
-        <f t="shared" si="130"/>
+        <f t="shared" si="149"/>
         <v>0</v>
       </c>
       <c r="I106" s="5">
-        <f t="shared" si="131"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="J106" s="5">
-        <f t="shared" si="132"/>
+        <f t="shared" si="151"/>
         <v>0</v>
       </c>
       <c r="K106" s="5"/>
       <c r="L106" s="5">
-        <f t="shared" si="133"/>
+        <f t="shared" si="152"/>
         <v>0</v>
       </c>
       <c r="M106" s="5">
-        <f t="shared" si="134"/>
+        <f t="shared" si="153"/>
         <v>2.5</v>
       </c>
       <c r="N106" s="5">
-        <f t="shared" si="129"/>
+        <f t="shared" si="148"/>
         <v>0.39999999999999991</v>
       </c>
       <c r="V106" s="5"/>
@@ -8383,30 +8655,30 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="H107" s="5">
-        <f t="shared" si="130"/>
+        <f t="shared" si="149"/>
         <v>15.3</v>
       </c>
       <c r="I107" s="5">
-        <f t="shared" si="131"/>
+        <f t="shared" si="150"/>
         <v>2.1999999999999993</v>
       </c>
       <c r="J107" s="5">
-        <f t="shared" si="132"/>
+        <f t="shared" si="151"/>
         <v>3.6999999999999993</v>
       </c>
       <c r="K107" s="5">
         <v>-9.1999999999999993</v>
       </c>
       <c r="L107" s="5">
-        <f t="shared" si="133"/>
+        <f t="shared" si="152"/>
         <v>3.7999999999999989</v>
       </c>
       <c r="M107" s="5">
-        <f t="shared" si="134"/>
+        <f t="shared" si="153"/>
         <v>0.10000000000000142</v>
       </c>
       <c r="N107" s="5">
-        <f t="shared" si="129"/>
+        <f t="shared" si="148"/>
         <v>-10.500000000000004</v>
       </c>
       <c r="V107" s="5"/>
@@ -8434,30 +8706,30 @@
         <v>0</v>
       </c>
       <c r="H108" s="5">
-        <f t="shared" si="130"/>
+        <f t="shared" si="149"/>
         <v>-0.3</v>
       </c>
       <c r="I108" s="5">
-        <f t="shared" si="131"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="J108" s="5">
-        <f t="shared" si="132"/>
+        <f t="shared" si="151"/>
         <v>13.100000000000001</v>
       </c>
       <c r="K108" s="5">
         <v>0</v>
       </c>
       <c r="L108" s="5">
-        <f t="shared" si="133"/>
+        <f t="shared" si="152"/>
         <v>0</v>
       </c>
       <c r="M108" s="5">
-        <f t="shared" si="134"/>
+        <f t="shared" si="153"/>
         <v>0</v>
       </c>
       <c r="N108" s="5">
-        <f t="shared" si="129"/>
+        <f t="shared" si="148"/>
         <v>0</v>
       </c>
       <c r="V108" s="5"/>
@@ -8483,28 +8755,28 @@
       </c>
       <c r="G109" s="5"/>
       <c r="H109" s="5">
-        <f t="shared" si="130"/>
+        <f t="shared" si="149"/>
         <v>0</v>
       </c>
       <c r="I109" s="5">
-        <f t="shared" si="131"/>
+        <f t="shared" si="150"/>
         <v>10.8</v>
       </c>
       <c r="J109" s="5">
-        <f t="shared" si="132"/>
+        <f t="shared" si="151"/>
         <v>-10.8</v>
       </c>
       <c r="K109" s="5"/>
       <c r="L109" s="5">
-        <f t="shared" si="133"/>
+        <f t="shared" si="152"/>
         <v>0</v>
       </c>
       <c r="M109" s="5">
-        <f t="shared" si="134"/>
+        <f t="shared" si="153"/>
         <v>0</v>
       </c>
       <c r="N109" s="5">
-        <f t="shared" si="129"/>
+        <f t="shared" si="148"/>
         <v>0</v>
       </c>
       <c r="V109" s="5"/>
@@ -8522,30 +8794,30 @@
         <v>-5.9</v>
       </c>
       <c r="H110" s="5">
-        <f t="shared" si="130"/>
+        <f t="shared" si="149"/>
         <v>0</v>
       </c>
       <c r="I110" s="5">
-        <f t="shared" si="131"/>
+        <f t="shared" si="150"/>
         <v>0.80000000000000071</v>
       </c>
       <c r="J110" s="5">
-        <f t="shared" si="132"/>
+        <f t="shared" si="151"/>
         <v>-1.5</v>
       </c>
       <c r="K110" s="5">
         <v>0</v>
       </c>
       <c r="L110" s="5">
-        <f t="shared" si="133"/>
+        <f t="shared" si="152"/>
         <v>0</v>
       </c>
       <c r="M110" s="5">
-        <f t="shared" si="134"/>
+        <f t="shared" si="153"/>
         <v>0</v>
       </c>
       <c r="N110" s="5">
-        <f t="shared" si="129"/>
+        <f t="shared" si="148"/>
         <v>0</v>
       </c>
       <c r="V110" s="5">
@@ -8575,30 +8847,30 @@
         <v>-2.7</v>
       </c>
       <c r="H111" s="5">
-        <f t="shared" si="130"/>
+        <f t="shared" si="149"/>
         <v>-2.8999999999999995</v>
       </c>
       <c r="I111" s="5">
-        <f t="shared" si="131"/>
+        <f t="shared" si="150"/>
         <v>-2.1000000000000005</v>
       </c>
       <c r="J111" s="5">
-        <f t="shared" si="132"/>
+        <f t="shared" si="151"/>
         <v>-1.8999999999999995</v>
       </c>
       <c r="K111" s="5">
         <v>-1.3</v>
       </c>
       <c r="L111" s="5">
-        <f t="shared" si="133"/>
+        <f t="shared" si="152"/>
         <v>-1.2</v>
       </c>
       <c r="M111" s="5">
-        <f t="shared" si="134"/>
+        <f t="shared" si="153"/>
         <v>-0.99999999999999978</v>
       </c>
       <c r="N111" s="5">
-        <f t="shared" si="129"/>
+        <f t="shared" si="148"/>
         <v>0</v>
       </c>
       <c r="V111" s="5"/>
@@ -8626,30 +8898,30 @@
         <v>-5.0999999999999996</v>
       </c>
       <c r="H112" s="5">
-        <f t="shared" si="130"/>
+        <f t="shared" si="149"/>
         <v>-3.8000000000000007</v>
       </c>
       <c r="I112" s="5">
-        <f t="shared" si="131"/>
+        <f t="shared" si="150"/>
         <v>-9.9999999999999645E-2</v>
       </c>
       <c r="J112" s="5">
-        <f t="shared" si="132"/>
+        <f t="shared" si="151"/>
         <v>-2.4000000000000004</v>
       </c>
       <c r="K112" s="5">
         <v>0</v>
       </c>
       <c r="L112" s="5">
-        <f t="shared" si="133"/>
+        <f t="shared" si="152"/>
         <v>0</v>
       </c>
       <c r="M112" s="5">
-        <f t="shared" si="134"/>
+        <f t="shared" si="153"/>
         <v>0</v>
       </c>
       <c r="N112" s="5">
-        <f t="shared" si="129"/>
+        <f t="shared" si="148"/>
         <v>3.4</v>
       </c>
       <c r="V112" s="5">
@@ -8680,30 +8952,30 @@
         <v>5.3</v>
       </c>
       <c r="H113" s="5">
-        <f t="shared" si="130"/>
+        <f t="shared" si="149"/>
         <v>7.6000000000000005</v>
       </c>
       <c r="I113" s="5">
-        <f t="shared" si="131"/>
+        <f t="shared" si="150"/>
         <v>7.0999999999999988</v>
       </c>
       <c r="J113" s="5">
-        <f t="shared" si="132"/>
+        <f t="shared" si="151"/>
         <v>21.799999999999994</v>
       </c>
       <c r="K113" s="5">
         <v>13.1</v>
       </c>
       <c r="L113" s="5">
-        <f t="shared" si="133"/>
+        <f t="shared" si="152"/>
         <v>7.2999999999999989</v>
       </c>
       <c r="M113" s="5">
-        <f t="shared" si="134"/>
+        <f t="shared" si="153"/>
         <v>8.6000000000000032</v>
       </c>
       <c r="N113" s="5">
-        <f t="shared" si="129"/>
+        <f t="shared" si="148"/>
         <v>3.2000000000000046</v>
       </c>
       <c r="V113" s="5">
@@ -8731,28 +9003,28 @@
       </c>
       <c r="G114" s="5"/>
       <c r="H114" s="5">
-        <f t="shared" si="130"/>
+        <f t="shared" si="149"/>
         <v>0</v>
       </c>
       <c r="I114" s="5">
-        <f t="shared" si="131"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="J114" s="5">
-        <f t="shared" si="132"/>
+        <f t="shared" si="151"/>
         <v>0</v>
       </c>
       <c r="K114" s="5"/>
       <c r="L114" s="5">
-        <f t="shared" si="133"/>
+        <f t="shared" si="152"/>
         <v>0</v>
       </c>
       <c r="M114" s="5">
-        <f t="shared" si="134"/>
+        <f t="shared" si="153"/>
         <v>0.1</v>
       </c>
       <c r="N114" s="5">
-        <f t="shared" si="129"/>
+        <f t="shared" si="148"/>
         <v>1.5999999999999999</v>
       </c>
       <c r="V114" s="5"/>
@@ -8774,30 +9046,30 @@
         <v>1.5</v>
       </c>
       <c r="H115" s="5">
-        <f t="shared" si="130"/>
+        <f t="shared" si="149"/>
         <v>-89.6</v>
       </c>
       <c r="I115" s="5">
-        <f t="shared" si="131"/>
+        <f t="shared" si="150"/>
         <v>53.399999999999991</v>
       </c>
       <c r="J115" s="5">
-        <f t="shared" si="132"/>
+        <f t="shared" si="151"/>
         <v>-88.1</v>
       </c>
       <c r="K115" s="5">
         <v>96.4</v>
       </c>
       <c r="L115" s="5">
-        <f t="shared" si="133"/>
+        <f t="shared" si="152"/>
         <v>-41.100000000000009</v>
       </c>
       <c r="M115" s="5">
-        <f t="shared" si="134"/>
+        <f t="shared" si="153"/>
         <v>22.700000000000003</v>
       </c>
       <c r="N115" s="5">
-        <f t="shared" si="129"/>
+        <f t="shared" si="148"/>
         <v>-20.299999999999997</v>
       </c>
       <c r="V115" s="5">
@@ -8827,30 +9099,30 @@
         <v>-131.6</v>
       </c>
       <c r="H116" s="5">
-        <f t="shared" si="130"/>
+        <f t="shared" si="149"/>
         <v>-138.1</v>
       </c>
       <c r="I116" s="5">
-        <f t="shared" si="131"/>
+        <f t="shared" si="150"/>
         <v>-142.00000000000003</v>
       </c>
       <c r="J116" s="5">
-        <f t="shared" si="132"/>
+        <f t="shared" si="151"/>
         <v>3.0999999999999659</v>
       </c>
       <c r="K116" s="5">
         <v>-38.299999999999997</v>
       </c>
       <c r="L116" s="5">
-        <f t="shared" si="133"/>
+        <f t="shared" si="152"/>
         <v>26.4</v>
       </c>
       <c r="M116" s="5">
-        <f t="shared" si="134"/>
+        <f t="shared" si="153"/>
         <v>42.8</v>
       </c>
       <c r="N116" s="5">
-        <f t="shared" si="129"/>
+        <f t="shared" si="148"/>
         <v>98.4</v>
       </c>
       <c r="V116" s="5">
@@ -8880,30 +9152,30 @@
         <v>-14.7</v>
       </c>
       <c r="H117" s="5">
-        <f t="shared" si="130"/>
+        <f t="shared" si="149"/>
         <v>-9.1000000000000014</v>
       </c>
       <c r="I117" s="5">
-        <f t="shared" si="131"/>
+        <f t="shared" si="150"/>
         <v>-15.2</v>
       </c>
       <c r="J117" s="5">
-        <f t="shared" si="132"/>
+        <f t="shared" si="151"/>
         <v>-1.2999999999999972</v>
       </c>
       <c r="K117" s="5">
         <v>1.4</v>
       </c>
       <c r="L117" s="5">
-        <f t="shared" si="133"/>
+        <f t="shared" si="152"/>
         <v>-4.3</v>
       </c>
       <c r="M117" s="5">
-        <f t="shared" si="134"/>
+        <f t="shared" si="153"/>
         <v>-11.9</v>
       </c>
       <c r="N117" s="5">
-        <f t="shared" si="129"/>
+        <f t="shared" si="148"/>
         <v>12.299999999999999</v>
       </c>
       <c r="V117" s="5"/>
@@ -8931,30 +9203,30 @@
         <v>-5.5</v>
       </c>
       <c r="H118" s="5">
-        <f t="shared" si="130"/>
+        <f t="shared" si="149"/>
         <v>14.7</v>
       </c>
       <c r="I118" s="5">
-        <f t="shared" si="131"/>
+        <f t="shared" si="150"/>
         <v>-15.600000000000001</v>
       </c>
       <c r="J118" s="5">
-        <f t="shared" si="132"/>
+        <f t="shared" si="151"/>
         <v>38.900000000000006</v>
       </c>
       <c r="K118" s="5">
         <v>-14.5</v>
       </c>
       <c r="L118" s="5">
-        <f t="shared" si="133"/>
+        <f t="shared" si="152"/>
         <v>-6.3999999999999986</v>
       </c>
       <c r="M118" s="5">
-        <f t="shared" si="134"/>
+        <f t="shared" si="153"/>
         <v>-21.9</v>
       </c>
       <c r="N118" s="5">
-        <f t="shared" si="129"/>
+        <f t="shared" si="148"/>
         <v>11.599999999999998</v>
       </c>
       <c r="V118" s="5">
@@ -8984,30 +9256,30 @@
         <v>13.8</v>
       </c>
       <c r="H119" s="5">
-        <f t="shared" si="130"/>
+        <f t="shared" si="149"/>
         <v>-14.5</v>
       </c>
       <c r="I119" s="5">
-        <f t="shared" si="131"/>
+        <f t="shared" si="150"/>
         <v>21.900000000000002</v>
       </c>
       <c r="J119" s="5">
-        <f t="shared" si="132"/>
+        <f t="shared" si="151"/>
         <v>0.49999999999999645</v>
       </c>
       <c r="K119" s="5">
         <v>25.8</v>
       </c>
       <c r="L119" s="5">
-        <f t="shared" si="133"/>
+        <f t="shared" si="152"/>
         <v>-41.6</v>
       </c>
       <c r="M119" s="5">
-        <f t="shared" si="134"/>
+        <f t="shared" si="153"/>
         <v>-13.399999999999999</v>
       </c>
       <c r="N119" s="5">
-        <f t="shared" si="129"/>
+        <f t="shared" si="148"/>
         <v>-30.3</v>
       </c>
       <c r="V119" s="5">
@@ -9037,30 +9309,30 @@
         <v>0</v>
       </c>
       <c r="H120" s="5">
-        <f t="shared" si="130"/>
+        <f t="shared" si="149"/>
         <v>-2.9</v>
       </c>
       <c r="I120" s="5">
-        <f t="shared" si="131"/>
+        <f t="shared" si="150"/>
         <v>0</v>
       </c>
       <c r="J120" s="5">
-        <f t="shared" si="132"/>
+        <f t="shared" si="151"/>
         <v>0</v>
       </c>
       <c r="K120" s="5">
         <v>-9.1999999999999993</v>
       </c>
       <c r="L120" s="5">
-        <f t="shared" si="133"/>
+        <f t="shared" si="152"/>
         <v>0</v>
       </c>
       <c r="M120" s="5">
-        <f t="shared" si="134"/>
+        <f t="shared" si="153"/>
         <v>0</v>
       </c>
       <c r="N120" s="5">
-        <f t="shared" si="129"/>
+        <f t="shared" si="148"/>
         <v>-0.70000000000000107</v>
       </c>
       <c r="V120" s="5"/>
@@ -9086,7 +9358,7 @@
       <c r="L121" s="5"/>
       <c r="M121" s="5"/>
       <c r="N121" s="5">
-        <f t="shared" si="129"/>
+        <f t="shared" si="148"/>
         <v>-5.3</v>
       </c>
       <c r="V121" s="5"/>
@@ -9131,7 +9403,7 @@
         <v>-53.900000000000006</v>
       </c>
       <c r="N122" s="5">
-        <f t="shared" si="129"/>
+        <f t="shared" si="148"/>
         <v>10.700000000000003</v>
       </c>
       <c r="V122" s="5">
@@ -9158,35 +9430,35 @@
         <v>118</v>
       </c>
       <c r="G123" s="9">
-        <f t="shared" ref="G123:N123" si="135">G94+SUM(G95:G122)</f>
+        <f t="shared" ref="G123:N123" si="154">G94+SUM(G95:G122)</f>
         <v>-276.89999999999998</v>
       </c>
       <c r="H123" s="9">
-        <f t="shared" si="135"/>
+        <f t="shared" si="154"/>
         <v>-348</v>
       </c>
       <c r="I123" s="9">
-        <f t="shared" si="135"/>
+        <f t="shared" si="154"/>
         <v>-239.00000000000003</v>
       </c>
       <c r="J123" s="9">
-        <f t="shared" si="135"/>
+        <f t="shared" si="154"/>
         <v>-242.80000000000024</v>
       </c>
       <c r="K123" s="9">
-        <f t="shared" si="135"/>
+        <f t="shared" si="154"/>
         <v>-167.6</v>
       </c>
       <c r="L123" s="9">
-        <f t="shared" si="135"/>
+        <f t="shared" si="154"/>
         <v>-254.59999999999997</v>
       </c>
       <c r="M123" s="9">
-        <f t="shared" si="135"/>
+        <f t="shared" si="154"/>
         <v>-174.9</v>
       </c>
       <c r="N123" s="9">
-        <f t="shared" si="135"/>
+        <f t="shared" si="154"/>
         <v>-131.40000000000009</v>
       </c>
       <c r="O123" s="9"/>
@@ -9194,27 +9466,27 @@
       <c r="Q123" s="9"/>
       <c r="R123" s="9"/>
       <c r="V123" s="9">
-        <f t="shared" ref="V123:AA123" si="136">V94+SUM(V95:V122)</f>
+        <f t="shared" ref="V123:AA123" si="155">V94+SUM(V95:V122)</f>
         <v>-45.100000000000023</v>
       </c>
       <c r="W123" s="9">
-        <f t="shared" si="136"/>
+        <f t="shared" si="155"/>
         <v>-155.50000000000011</v>
       </c>
       <c r="X123" s="9">
-        <f t="shared" si="136"/>
+        <f t="shared" si="155"/>
         <v>-358.2000000000001</v>
       </c>
       <c r="Y123" s="9">
-        <f t="shared" si="136"/>
+        <f t="shared" si="155"/>
         <v>-828.40000000000009</v>
       </c>
       <c r="Z123" s="9">
-        <f t="shared" si="136"/>
+        <f t="shared" si="155"/>
         <v>-1106.7</v>
       </c>
       <c r="AA123" s="9">
-        <f t="shared" si="136"/>
+        <f t="shared" si="155"/>
         <v>-728.5</v>
       </c>
     </row>
@@ -9249,7 +9521,7 @@
         <v>59.199999999999989</v>
       </c>
       <c r="N124" s="5">
-        <f t="shared" si="129"/>
+        <f t="shared" si="148"/>
         <v>34.000000000000028</v>
       </c>
       <c r="V124" s="5">
@@ -9302,7 +9574,7 @@
         <v>30.5</v>
       </c>
       <c r="N125" s="5">
-        <f t="shared" si="129"/>
+        <f t="shared" si="148"/>
         <v>5.7000000000000028</v>
       </c>
       <c r="V125" s="5">
@@ -9333,55 +9605,55 @@
         <v>180</v>
       </c>
       <c r="H126" s="5">
-        <f t="shared" ref="H126:N126" si="137">H124+H125</f>
+        <f t="shared" ref="H126:N126" si="156">H124+H125</f>
         <v>158.60000000000002</v>
       </c>
       <c r="I126" s="5">
-        <f t="shared" si="137"/>
+        <f t="shared" si="156"/>
         <v>171.49999999999997</v>
       </c>
       <c r="J126" s="5">
-        <f t="shared" si="137"/>
+        <f t="shared" si="156"/>
         <v>186.00000000000006</v>
       </c>
       <c r="K126" s="5">
-        <f t="shared" si="137"/>
+        <f t="shared" si="156"/>
         <v>98.699999999999989</v>
       </c>
       <c r="L126" s="5">
-        <f t="shared" si="137"/>
+        <f t="shared" si="156"/>
         <v>106.20000000000002</v>
       </c>
       <c r="M126" s="5">
-        <f t="shared" si="137"/>
+        <f t="shared" si="156"/>
         <v>89.699999999999989</v>
       </c>
       <c r="N126" s="5">
-        <f t="shared" si="137"/>
+        <f t="shared" si="156"/>
         <v>39.700000000000031</v>
       </c>
       <c r="V126" s="5">
-        <f t="shared" ref="V126:W126" si="138">V124+V125</f>
+        <f t="shared" ref="V126:W126" si="157">V124+V125</f>
         <v>8.1</v>
       </c>
       <c r="W126" s="5">
-        <f t="shared" si="138"/>
+        <f t="shared" si="157"/>
         <v>48.2</v>
       </c>
       <c r="X126" s="5">
-        <f t="shared" ref="X126:Y126" si="139">X124+X125</f>
+        <f t="shared" ref="X126:Y126" si="158">X124+X125</f>
         <v>192.39999999999998</v>
       </c>
       <c r="Y126" s="5">
-        <f t="shared" si="139"/>
+        <f t="shared" si="158"/>
         <v>463.90000000000003</v>
       </c>
       <c r="Z126" s="5">
-        <f t="shared" ref="Z126:AA126" si="140">Z124+Z125</f>
+        <f t="shared" ref="Z126:AA126" si="159">Z124+Z125</f>
         <v>696.1</v>
       </c>
       <c r="AA126" s="5">
-        <f t="shared" si="140"/>
+        <f t="shared" si="159"/>
         <v>334.3</v>
       </c>
     </row>
@@ -9394,31 +9666,31 @@
         <v>-456.9</v>
       </c>
       <c r="H127" s="9">
-        <f t="shared" ref="H127:N127" si="141">H123-H126</f>
+        <f t="shared" ref="H127:N127" si="160">H123-H126</f>
         <v>-506.6</v>
       </c>
       <c r="I127" s="9">
-        <f t="shared" si="141"/>
+        <f t="shared" si="160"/>
         <v>-410.5</v>
       </c>
       <c r="J127" s="9">
-        <f t="shared" si="141"/>
+        <f t="shared" si="160"/>
         <v>-428.8000000000003</v>
       </c>
       <c r="K127" s="9">
-        <f t="shared" si="141"/>
+        <f t="shared" si="160"/>
         <v>-266.29999999999995</v>
       </c>
       <c r="L127" s="9">
-        <f t="shared" si="141"/>
+        <f t="shared" si="160"/>
         <v>-360.79999999999995</v>
       </c>
       <c r="M127" s="9">
-        <f t="shared" si="141"/>
+        <f t="shared" si="160"/>
         <v>-264.60000000000002</v>
       </c>
       <c r="N127" s="9">
-        <f t="shared" si="141"/>
+        <f t="shared" si="160"/>
         <v>-171.10000000000014</v>
       </c>
       <c r="O127" s="9"/>
@@ -9426,27 +9698,27 @@
       <c r="Q127" s="9"/>
       <c r="R127" s="9"/>
       <c r="V127" s="9">
-        <f t="shared" ref="V127:W127" si="142">V123-V126</f>
+        <f t="shared" ref="V127:W127" si="161">V123-V126</f>
         <v>-53.200000000000024</v>
       </c>
       <c r="W127" s="9">
-        <f t="shared" si="142"/>
+        <f t="shared" si="161"/>
         <v>-203.7000000000001</v>
       </c>
       <c r="X127" s="9">
-        <f t="shared" ref="X127:Y127" si="143">X123-X126</f>
+        <f t="shared" ref="X127:Y127" si="162">X123-X126</f>
         <v>-550.60000000000014</v>
       </c>
       <c r="Y127" s="9">
-        <f t="shared" si="143"/>
+        <f t="shared" si="162"/>
         <v>-1292.3000000000002</v>
       </c>
       <c r="Z127" s="9">
-        <f t="shared" ref="Z127:AA127" si="144">Z123-Z126</f>
+        <f t="shared" ref="Z127:AA127" si="163">Z123-Z126</f>
         <v>-1802.8000000000002</v>
       </c>
       <c r="AA127" s="9">
-        <f t="shared" si="144"/>
+        <f t="shared" si="163"/>
         <v>-1062.8</v>
       </c>
       <c r="AC127" s="9"/>
@@ -9504,15 +9776,15 @@
         <v>-0.45166666666666677</v>
       </c>
       <c r="L130" s="10">
-        <f t="shared" ref="L130:N130" si="145">L126/H126-1</f>
+        <f t="shared" ref="L130:N130" si="164">L126/H126-1</f>
         <v>-0.33039092055485497</v>
       </c>
       <c r="M130" s="10">
-        <f t="shared" si="145"/>
+        <f t="shared" si="164"/>
         <v>-0.4769679300291545</v>
       </c>
       <c r="N130" s="10">
-        <f t="shared" si="145"/>
+        <f t="shared" si="164"/>
         <v>-0.78655913978494607</v>
       </c>
       <c r="O130" s="5"/>
@@ -10094,24 +10366,24 @@
         <v>122</v>
       </c>
       <c r="H161" s="5">
-        <f t="shared" ref="H161:M161" si="146">H133+SUM(H134:H160)</f>
+        <f t="shared" ref="H161:M161" si="165">H133+SUM(H134:H160)</f>
         <v>-624.9</v>
       </c>
       <c r="I161" s="5">
-        <f t="shared" si="146"/>
+        <f t="shared" si="165"/>
         <v>-863.89999999999986</v>
       </c>
       <c r="J161" s="5">
-        <f t="shared" si="146"/>
+        <f t="shared" si="165"/>
         <v>-1106.7000000000003</v>
       </c>
       <c r="K161" s="5"/>
       <c r="L161" s="5">
-        <f t="shared" si="146"/>
+        <f t="shared" si="165"/>
         <v>-422.19999999999993</v>
       </c>
       <c r="M161" s="5">
-        <f t="shared" si="146"/>
+        <f t="shared" si="165"/>
         <v>-597.09999999999991</v>
       </c>
     </row>
